--- a/results/logistic/dilemma/confidence/0.2/sum_scores.xlsx
+++ b/results/logistic/dilemma/confidence/0.2/sum_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="295">
   <si>
     <t>negative</t>
   </si>
@@ -49,877 +49,856 @@
     <t>terrifying</t>
   </si>
   <si>
+    <t>other</t>
+  </si>
+  <si>
     <t>shit</t>
   </si>
   <si>
-    <t>other</t>
-  </si>
-  <si>
     <t>fake</t>
   </si>
   <si>
+    <t>news</t>
+  </si>
+  <si>
     <t>down</t>
   </si>
   <si>
     <t>worst</t>
   </si>
   <si>
+    <t>seriously</t>
+  </si>
+  <si>
+    <t>bad</t>
+  </si>
+  <si>
     <t>.</t>
   </si>
   <si>
-    <t>seriously</t>
-  </si>
-  <si>
-    <t>news</t>
+    <t>serious</t>
+  </si>
+  <si>
+    <t>crazy</t>
+  </si>
+  <si>
+    <t>behind</t>
+  </si>
+  <si>
+    <t>illegal</t>
+  </si>
+  <si>
+    <t>fuck</t>
   </si>
   <si>
     <t>addicted</t>
   </si>
   <si>
-    <t>bad</t>
-  </si>
-  <si>
-    <t>serious</t>
-  </si>
-  <si>
-    <t>crazy</t>
-  </si>
-  <si>
-    <t>behind</t>
-  </si>
-  <si>
     <t>long</t>
   </si>
   <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>the</t>
+  </si>
+  <si>
+    <t>black</t>
+  </si>
+  <si>
+    <t>disturbing</t>
+  </si>
+  <si>
+    <t>software</t>
+  </si>
+  <si>
+    <t>fucked</t>
+  </si>
+  <si>
+    <t>drugs</t>
+  </si>
+  <si>
+    <t>sad</t>
+  </si>
+  <si>
+    <t>wrong</t>
+  </si>
+  <si>
+    <t>fucking</t>
+  </si>
+  <si>
+    <t>evil</t>
+  </si>
+  <si>
     <t>dark</t>
   </si>
   <si>
-    <t>software</t>
-  </si>
-  <si>
-    <t>illegal</t>
-  </si>
-  <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>the</t>
-  </si>
-  <si>
-    <t>fucked</t>
-  </si>
-  <si>
-    <t>disturbing</t>
-  </si>
-  <si>
-    <t>evil</t>
-  </si>
-  <si>
-    <t>fucking</t>
+    <t>faster</t>
   </si>
   <si>
     <t>not</t>
   </si>
   <si>
-    <t>sad</t>
-  </si>
-  <si>
     <t>mean</t>
   </si>
   <si>
+    <t>holy</t>
+  </si>
+  <si>
+    <t>it</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>boring</t>
+  </si>
+  <si>
+    <t>mit</t>
+  </si>
+  <si>
+    <t>…</t>
+  </si>
+  <si>
+    <t>single</t>
+  </si>
+  <si>
+    <t>guilty</t>
+  </si>
+  <si>
+    <t>insane</t>
+  </si>
+  <si>
+    <t>creepy</t>
+  </si>
+  <si>
+    <t>we</t>
+  </si>
+  <si>
+    <t>[UNK]</t>
+  </si>
+  <si>
+    <t>truth</t>
+  </si>
+  <si>
+    <t>and</t>
+  </si>
+  <si>
+    <t>are</t>
+  </si>
+  <si>
+    <t>customers</t>
+  </si>
+  <si>
+    <t>half</t>
+  </si>
+  <si>
     <t>shocking</t>
   </si>
   <si>
+    <t>at</t>
+  </si>
+  <si>
+    <t>feels</t>
+  </si>
+  <si>
+    <t>few</t>
+  </si>
+  <si>
+    <t>frightening</t>
+  </si>
+  <si>
+    <t>least</t>
+  </si>
+  <si>
+    <t>this</t>
+  </si>
+  <si>
+    <t>twitter</t>
+  </si>
+  <si>
+    <t>ho</t>
+  </si>
+  <si>
+    <t>re</t>
+  </si>
+  <si>
+    <t>dumb</t>
+  </si>
+  <si>
+    <t>sick</t>
+  </si>
+  <si>
+    <t>hate</t>
+  </si>
+  <si>
+    <t>days</t>
+  </si>
+  <si>
+    <t>mad</t>
+  </si>
+  <si>
+    <t>weird</t>
+  </si>
+  <si>
+    <t>shocked</t>
+  </si>
+  <si>
+    <t>unfortunately</t>
+  </si>
+  <si>
+    <t>know</t>
+  </si>
+  <si>
+    <t>my</t>
+  </si>
+  <si>
+    <t>is</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>with</t>
+  </si>
+  <si>
+    <t>:</t>
+  </si>
+  <si>
+    <t>drama</t>
+  </si>
+  <si>
+    <t>extremely</t>
+  </si>
+  <si>
+    <t>but</t>
+  </si>
+  <si>
+    <t>information</t>
+  </si>
+  <si>
+    <t>dangerous</t>
+  </si>
+  <si>
+    <t>destroying</t>
+  </si>
+  <si>
+    <t>finally</t>
+  </si>
+  <si>
+    <t>media</t>
+  </si>
+  <si>
+    <t>hard</t>
+  </si>
+  <si>
+    <t>chilling</t>
+  </si>
+  <si>
+    <t>’</t>
+  </si>
+  <si>
+    <t>ignore</t>
+  </si>
+  <si>
+    <t>spreads</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>times</t>
+  </si>
+  <si>
+    <t>all</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>generation</t>
+  </si>
+  <si>
+    <t>any</t>
+  </si>
+  <si>
+    <t>way</t>
+  </si>
+  <si>
+    <t>some</t>
+  </si>
+  <si>
+    <t>each</t>
+  </si>
+  <si>
+    <t>two</t>
+  </si>
+  <si>
+    <t>industries</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>what</t>
+  </si>
+  <si>
+    <t>learned</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>completely</t>
+  </si>
+  <si>
     <t>'</t>
   </si>
   <si>
-    <t>black</t>
-  </si>
-  <si>
-    <t>at</t>
-  </si>
-  <si>
-    <t>holy</t>
-  </si>
-  <si>
-    <t>frightening</t>
-  </si>
-  <si>
-    <t>s</t>
-  </si>
-  <si>
-    <t>mit</t>
-  </si>
-  <si>
-    <t>ho</t>
-  </si>
-  <si>
-    <t>sick</t>
-  </si>
-  <si>
-    <t>wrong</t>
-  </si>
-  <si>
-    <t>creepy</t>
-  </si>
-  <si>
-    <t>shocked</t>
-  </si>
-  <si>
-    <t>it</t>
-  </si>
-  <si>
-    <t>[UNK]</t>
-  </si>
-  <si>
-    <t>truth</t>
-  </si>
-  <si>
-    <t>boring</t>
-  </si>
-  <si>
-    <t>faster</t>
-  </si>
-  <si>
-    <t>,</t>
+    <t>users</t>
+  </si>
+  <si>
+    <t>damn</t>
+  </si>
+  <si>
+    <t>call</t>
+  </si>
+  <si>
+    <t>”</t>
+  </si>
+  <si>
+    <t>shows</t>
+  </si>
+  <si>
+    <t>considering</t>
+  </si>
+  <si>
+    <t>me</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>six</t>
+  </si>
+  <si>
+    <t>to</t>
+  </si>
+  <si>
+    <t>because</t>
+  </si>
+  <si>
+    <t>game</t>
+  </si>
+  <si>
+    <t>certain</t>
+  </si>
+  <si>
+    <t>released</t>
+  </si>
+  <si>
+    <t>system</t>
   </si>
   <si>
     <t>late</t>
   </si>
   <si>
-    <t>dangerous</t>
-  </si>
-  <si>
-    <t>insane</t>
-  </si>
-  <si>
-    <t>weird</t>
+    <t>failed</t>
+  </si>
+  <si>
+    <t>feel</t>
+  </si>
+  <si>
+    <t>civil</t>
+  </si>
+  <si>
+    <t>algorithms</t>
+  </si>
+  <si>
+    <t>been</t>
+  </si>
+  <si>
+    <t>destructive</t>
+  </si>
+  <si>
+    <t>these</t>
+  </si>
+  <si>
+    <t>was</t>
+  </si>
+  <si>
+    <t>afraid</t>
+  </si>
+  <si>
+    <t>person</t>
   </si>
   <si>
     <t>uncomfortable</t>
   </si>
   <si>
-    <t>this</t>
-  </si>
-  <si>
-    <t>we</t>
-  </si>
-  <si>
-    <t>and</t>
-  </si>
-  <si>
-    <t>drugs</t>
-  </si>
-  <si>
-    <t>half</t>
-  </si>
-  <si>
-    <t>finally</t>
+    <t>crap</t>
+  </si>
+  <si>
+    <t>stomach</t>
+  </si>
+  <si>
+    <t>difficult</t>
+  </si>
+  <si>
+    <t>soon</t>
+  </si>
+  <si>
+    <t>active</t>
+  </si>
+  <si>
+    <t>un</t>
+  </si>
+  <si>
+    <t>app</t>
+  </si>
+  <si>
+    <t>sucks</t>
+  </si>
+  <si>
+    <t>foreign</t>
+  </si>
+  <si>
+    <t>dea</t>
+  </si>
+  <si>
+    <t>use</t>
+  </si>
+  <si>
+    <t>opening</t>
   </si>
   <si>
     <t>less</t>
   </si>
   <si>
-    <t>least</t>
-  </si>
-  <si>
-    <t>few</t>
-  </si>
-  <si>
-    <t>hate</t>
-  </si>
-  <si>
-    <t>guilty</t>
-  </si>
-  <si>
-    <t>unfortunately</t>
-  </si>
-  <si>
-    <t>know</t>
-  </si>
-  <si>
-    <t>my</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>is</t>
-  </si>
-  <si>
-    <t>all</t>
-  </si>
-  <si>
-    <t>…</t>
-  </si>
-  <si>
-    <t>:</t>
-  </si>
-  <si>
-    <t>users</t>
-  </si>
-  <si>
-    <t>two</t>
-  </si>
-  <si>
-    <t>customers</t>
-  </si>
-  <si>
-    <t>mad</t>
-  </si>
-  <si>
-    <t>phone</t>
-  </si>
-  <si>
-    <t>cut</t>
-  </si>
-  <si>
-    <t>released</t>
-  </si>
-  <si>
-    <t>worse</t>
-  </si>
-  <si>
-    <t>past</t>
-  </si>
-  <si>
-    <t>afraid</t>
-  </si>
-  <si>
-    <t>hard</t>
-  </si>
-  <si>
-    <t>little</t>
-  </si>
-  <si>
-    <t>’</t>
-  </si>
-  <si>
-    <t>ignore</t>
-  </si>
-  <si>
-    <t>twitter</t>
-  </si>
-  <si>
-    <t>spreads</t>
-  </si>
-  <si>
-    <t>times</t>
-  </si>
-  <si>
-    <t>?</t>
-  </si>
-  <si>
-    <t>generation</t>
-  </si>
-  <si>
-    <t>any</t>
-  </si>
-  <si>
-    <t>way</t>
-  </si>
-  <si>
-    <t>some</t>
-  </si>
-  <si>
-    <t>industries</t>
-  </si>
-  <si>
-    <t>over</t>
-  </si>
-  <si>
-    <t>call</t>
-  </si>
-  <si>
-    <t>consequences</t>
-  </si>
-  <si>
-    <t>what</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>completely</t>
-  </si>
-  <si>
-    <t>drama</t>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>social</t>
+  </si>
+  <si>
+    <t>more</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>much</t>
+  </si>
+  <si>
+    <t>most</t>
+  </si>
+  <si>
+    <t>highly</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>own</t>
+  </si>
+  <si>
+    <t>worth</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>lo</t>
+  </si>
+  <si>
+    <t>really</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>many</t>
+  </si>
+  <si>
+    <t>!</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>brilliant</t>
+  </si>
+  <si>
+    <t>ironic</t>
+  </si>
+  <si>
+    <t>documentary</t>
+  </si>
+  <si>
+    <t>real</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>yesterday</t>
+  </si>
+  <si>
+    <t>you</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>first</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>tool</t>
+  </si>
+  <si>
+    <t>used</t>
+  </si>
+  <si>
+    <t>of</t>
+  </si>
+  <si>
+    <t>available</t>
+  </si>
+  <si>
+    <t>glad</t>
+  </si>
+  <si>
+    <t>kind</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>so</t>
+  </si>
+  <si>
+    <t>excellent</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>honestly</t>
+  </si>
+  <si>
+    <t>action</t>
+  </si>
+  <si>
+    <t>wow</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>isn</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>that</t>
+  </si>
+  <si>
+    <t>has</t>
+  </si>
+  <si>
+    <t>its</t>
+  </si>
+  <si>
+    <t>goals</t>
+  </si>
+  <si>
+    <t>thing</t>
+  </si>
+  <si>
+    <t>influence</t>
+  </si>
+  <si>
+    <t>watching</t>
+  </si>
+  <si>
+    <t>product</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>loved</t>
+  </si>
+  <si>
+    <t>on</t>
   </si>
   <si>
     <t>just</t>
   </si>
   <si>
-    <t>ni</t>
-  </si>
-  <si>
-    <t>shows</t>
-  </si>
-  <si>
-    <t>trouble</t>
-  </si>
-  <si>
-    <t>p</t>
-  </si>
-  <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>come</t>
-  </si>
-  <si>
-    <t>feels</t>
-  </si>
-  <si>
-    <t>inspiring</t>
-  </si>
-  <si>
-    <t>in</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>system</t>
-  </si>
-  <si>
-    <t>information</t>
-  </si>
-  <si>
-    <t>various</t>
-  </si>
-  <si>
-    <t>study</t>
-  </si>
-  <si>
-    <t>six</t>
-  </si>
-  <si>
-    <t>on</t>
-  </si>
-  <si>
-    <t>equation</t>
-  </si>
-  <si>
-    <t>imp</t>
-  </si>
-  <si>
-    <t>silicon</t>
-  </si>
-  <si>
-    <t>than</t>
-  </si>
-  <si>
-    <t>600</t>
-  </si>
-  <si>
-    <t>side</t>
-  </si>
-  <si>
-    <t>sucks</t>
-  </si>
-  <si>
-    <t>considering</t>
-  </si>
-  <si>
-    <t>days</t>
-  </si>
-  <si>
-    <t>later</t>
-  </si>
-  <si>
-    <t>these</t>
-  </si>
-  <si>
-    <t>algorithms</t>
-  </si>
-  <si>
-    <t>media</t>
-  </si>
-  <si>
-    <t>doc</t>
-  </si>
-  <si>
-    <t>terrible</t>
-  </si>
-  <si>
-    <t>were</t>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>eye</t>
-  </si>
-  <si>
-    <t>chilling</t>
-  </si>
-  <si>
-    <t>crap</t>
-  </si>
-  <si>
-    <t>contained</t>
-  </si>
-  <si>
-    <t>single</t>
-  </si>
-  <si>
-    <t>average</t>
-  </si>
-  <si>
-    <t>active</t>
-  </si>
-  <si>
-    <t>enough</t>
-  </si>
-  <si>
-    <t>disappointing</t>
-  </si>
-  <si>
-    <t>going</t>
-  </si>
-  <si>
-    <t>slight</t>
-  </si>
-  <si>
-    <t>foreign</t>
-  </si>
-  <si>
-    <t>stupid</t>
-  </si>
-  <si>
-    <t>even</t>
-  </si>
-  <si>
-    <t>curious</t>
-  </si>
-  <si>
-    <t>dumb</t>
-  </si>
-  <si>
-    <t>role</t>
-  </si>
-  <si>
-    <t>ll</t>
-  </si>
-  <si>
-    <t>destroying</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>social</t>
-  </si>
-  <si>
-    <t>more</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>worth</t>
-  </si>
-  <si>
-    <t>own</t>
-  </si>
-  <si>
-    <t>most</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>much</t>
-  </si>
-  <si>
-    <t>highly</t>
-  </si>
-  <si>
-    <t>lo</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>ironic</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>many</t>
-  </si>
-  <si>
-    <t>brilliant</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>really</t>
-  </si>
-  <si>
-    <t>first</t>
-  </si>
-  <si>
-    <t>right</t>
-  </si>
-  <si>
-    <t>its</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>!</t>
-  </si>
-  <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>tool</t>
-  </si>
-  <si>
-    <t>has</t>
-  </si>
-  <si>
-    <t>of</t>
-  </si>
-  <si>
-    <t>glad</t>
-  </si>
-  <si>
-    <t>excellent</t>
-  </si>
-  <si>
-    <t>goals</t>
-  </si>
-  <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>real</t>
-  </si>
-  <si>
-    <t>might</t>
+    <t>posting</t>
+  </si>
+  <si>
+    <t>opener</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>school</t>
+  </si>
+  <si>
+    <t>critics</t>
+  </si>
+  <si>
+    <t>advanced</t>
+  </si>
+  <si>
+    <t>arthur</t>
+  </si>
+  <si>
+    <t>live</t>
+  </si>
+  <si>
+    <t>latest</t>
+  </si>
+  <si>
+    <t>mind</t>
+  </si>
+  <si>
+    <t>gotten</t>
+  </si>
+  <si>
+    <t>"</t>
+  </si>
+  <si>
+    <t>means</t>
+  </si>
+  <si>
+    <t>pursuing</t>
+  </si>
+  <si>
+    <t>democracy</t>
+  </si>
+  <si>
+    <t>view</t>
+  </si>
+  <si>
+    <t>dilemma</t>
   </si>
   <si>
     <t>;</t>
   </si>
   <si>
-    <t>kind</t>
-  </si>
-  <si>
-    <t>posting</t>
-  </si>
-  <si>
-    <t>better</t>
+    <t>apps</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>hear</t>
+  </si>
+  <si>
+    <t>business</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t>ti</t>
+  </si>
+  <si>
+    <t>uses</t>
+  </si>
+  <si>
+    <t>mani</t>
+  </si>
+  <si>
+    <t>design</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>z</t>
+  </si>
+  <si>
+    <t>pu</t>
+  </si>
+  <si>
+    <t>such</t>
+  </si>
+  <si>
+    <t>ask</t>
+  </si>
+  <si>
+    <t>films</t>
+  </si>
+  <si>
+    <t>find</t>
+  </si>
+  <si>
+    <t>aware</t>
+  </si>
+  <si>
+    <t>wonder</t>
+  </si>
+  <si>
+    <t>work</t>
+  </si>
+  <si>
+    <t>super</t>
+  </si>
+  <si>
+    <t>ec</t>
+  </si>
+  <si>
+    <t>always</t>
+  </si>
+  <si>
+    <t>scared</t>
+  </si>
+  <si>
+    <t>barlow</t>
+  </si>
+  <si>
+    <t>can</t>
+  </si>
+  <si>
+    <t>why</t>
+  </si>
+  <si>
+    <t>there</t>
+  </si>
+  <si>
+    <t>technology</t>
+  </si>
+  <si>
+    <t>ind</t>
+  </si>
+  <si>
+    <t>magic</t>
+  </si>
+  <si>
+    <t>off</t>
+  </si>
+  <si>
+    <t>put</t>
+  </si>
+  <si>
+    <t>advice</t>
+  </si>
+  <si>
+    <t>engineers</t>
+  </si>
+  <si>
+    <t>how</t>
+  </si>
+  <si>
+    <t>immediately</t>
+  </si>
+  <si>
+    <t>post</t>
+  </si>
+  <si>
+    <t>powerful</t>
   </si>
   <si>
     <t>okay</t>
   </si>
   <si>
-    <t>mind</t>
-  </si>
-  <si>
-    <t>honestly</t>
-  </si>
-  <si>
-    <t>now</t>
-  </si>
-  <si>
-    <t>"</t>
-  </si>
-  <si>
-    <t>isn</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>be</t>
-  </si>
-  <si>
-    <t>used</t>
-  </si>
-  <si>
-    <t>“</t>
-  </si>
-  <si>
-    <t>available</t>
-  </si>
-  <si>
-    <t>r</t>
-  </si>
-  <si>
-    <t>d</t>
-  </si>
-  <si>
-    <t>user</t>
-  </si>
-  <si>
-    <t>documentary</t>
-  </si>
-  <si>
-    <t>dilemma</t>
-  </si>
-  <si>
-    <t>n</t>
-  </si>
-  <si>
-    <t>such</t>
-  </si>
-  <si>
-    <t>wow</t>
-  </si>
-  <si>
-    <t>school</t>
-  </si>
-  <si>
-    <t>ai</t>
-  </si>
-  <si>
-    <t>technology</t>
-  </si>
-  <si>
-    <t>live</t>
-  </si>
-  <si>
-    <t>yesterday</t>
-  </si>
-  <si>
-    <t>before</t>
+    <t>suggested</t>
+  </si>
+  <si>
+    <t>people</t>
+  </si>
+  <si>
+    <t>implications</t>
+  </si>
+  <si>
+    <t>close</t>
+  </si>
+  <si>
+    <t>loving</t>
+  </si>
+  <si>
+    <t>relevant</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>watch</t>
+  </si>
+  <si>
+    <t>engage</t>
+  </si>
+  <si>
+    <t>india</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>vital</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>•</t>
+  </si>
+  <si>
+    <t>then</t>
+  </si>
+  <si>
+    <t>fascinating</t>
+  </si>
+  <si>
+    <t>wish</t>
+  </si>
+  <si>
+    <t>incredible</t>
   </si>
   <si>
     <t>new</t>
   </si>
   <si>
-    <t>pursuing</t>
-  </si>
-  <si>
-    <t>thing</t>
-  </si>
-  <si>
-    <t>”</t>
-  </si>
-  <si>
-    <t>if</t>
-  </si>
-  <si>
-    <t>nt</t>
-  </si>
-  <si>
-    <t>for</t>
-  </si>
-  <si>
-    <t>u</t>
-  </si>
-  <si>
-    <t>product</t>
-  </si>
-  <si>
-    <t>pu</t>
-  </si>
-  <si>
-    <t>success</t>
-  </si>
-  <si>
-    <t>design</t>
-  </si>
-  <si>
-    <t>gen</t>
-  </si>
-  <si>
-    <t>z</t>
-  </si>
-  <si>
-    <t>that</t>
-  </si>
-  <si>
-    <t>waiting</t>
-  </si>
-  <si>
-    <t>lesson</t>
-  </si>
-  <si>
-    <t>/</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>happening</t>
-  </si>
-  <si>
-    <t>mani</t>
-  </si>
-  <si>
-    <t>then</t>
-  </si>
-  <si>
-    <t>en</t>
-  </si>
-  <si>
-    <t>pieces</t>
-  </si>
-  <si>
-    <t>i</t>
-  </si>
-  <si>
-    <t>oh</t>
-  </si>
-  <si>
-    <t>money</t>
-  </si>
-  <si>
-    <t>high</t>
-  </si>
-  <si>
-    <t>m</t>
-  </si>
-  <si>
-    <t>jar</t>
-  </si>
-  <si>
-    <t>documentaries</t>
-  </si>
-  <si>
-    <t>analysis</t>
-  </si>
-  <si>
-    <t>wonder</t>
-  </si>
-  <si>
-    <t>have</t>
-  </si>
-  <si>
-    <t>there</t>
-  </si>
-  <si>
-    <t>so</t>
-  </si>
-  <si>
-    <t>react</t>
-  </si>
-  <si>
-    <t>advanced</t>
-  </si>
-  <si>
-    <t>ind</t>
-  </si>
-  <si>
-    <t>clarke</t>
-  </si>
-  <si>
-    <t>action</t>
-  </si>
-  <si>
-    <t>about</t>
-  </si>
-  <si>
-    <t>ending</t>
-  </si>
-  <si>
-    <t>how</t>
-  </si>
-  <si>
-    <t>or</t>
-  </si>
-  <si>
-    <t>aware</t>
-  </si>
-  <si>
-    <t>influence</t>
-  </si>
-  <si>
-    <t>millennia</t>
-  </si>
-  <si>
-    <t>post</t>
-  </si>
-  <si>
-    <t>powerful</t>
-  </si>
-  <si>
-    <t>watch</t>
-  </si>
-  <si>
-    <t>strongly</t>
-  </si>
-  <si>
-    <t>you</t>
-  </si>
-  <si>
-    <t>relevant</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>critics</t>
-  </si>
-  <si>
-    <t>wise</t>
-  </si>
-  <si>
-    <t>accurate</t>
-  </si>
-  <si>
-    <t>latest</t>
-  </si>
-  <si>
-    <t>incredible</t>
-  </si>
-  <si>
-    <t>manipulated</t>
-  </si>
-  <si>
-    <t>vital</t>
-  </si>
-  <si>
-    <t>talked</t>
-  </si>
-  <si>
-    <t>apps</t>
-  </si>
-  <si>
-    <t>gotten</t>
-  </si>
-  <si>
-    <t>living</t>
-  </si>
-  <si>
     <t>epic</t>
   </si>
   <si>
-    <t>whole</t>
-  </si>
-  <si>
-    <t>scrolling</t>
-  </si>
-  <si>
     <t>awesome</t>
   </si>
   <si>
-    <t>interact</t>
-  </si>
-  <si>
-    <t>itself</t>
+    <t>button</t>
+  </si>
+  <si>
+    <t>platform</t>
   </si>
 </sst>
 </file>
@@ -1277,7 +1256,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q158"/>
+  <dimension ref="A1:Q159"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1288,7 +1267,7 @@
         <v>0</v>
       </c>
       <c r="J1" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -1346,13 +1325,13 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>0.1428571428571428</v>
+        <v>0.1431924882629108</v>
       </c>
       <c r="C3">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D3">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -1364,19 +1343,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="K3">
-        <v>0.1838235294117647</v>
+        <v>0.1829121540312876</v>
       </c>
       <c r="L3">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="M3">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -1388,7 +1367,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>948</v>
+        <v>946</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1396,13 +1375,13 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>0.07200929152148665</v>
+        <v>0.07394366197183098</v>
       </c>
       <c r="C4">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D4">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -1414,19 +1393,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="K4">
-        <v>0.09191176470588236</v>
+        <v>0.09747292418772563</v>
       </c>
       <c r="L4">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="M4">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -1438,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1446,7 +1425,7 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>0.04065040650406504</v>
+        <v>0.04107981220657277</v>
       </c>
       <c r="C5">
         <v>35</v>
@@ -1464,13 +1443,13 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="K5">
-        <v>0.05392156862745098</v>
+        <v>0.05294825511432009</v>
       </c>
       <c r="L5">
         <v>44</v>
@@ -1496,13 +1475,13 @@
         <v>12</v>
       </c>
       <c r="B6">
-        <v>0.03948896631823461</v>
+        <v>0.03638497652582159</v>
       </c>
       <c r="C6">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D6">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -1514,13 +1493,13 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="K6">
-        <v>0.04901960784313725</v>
+        <v>0.04813477737665463</v>
       </c>
       <c r="L6">
         <v>40</v>
@@ -1538,7 +1517,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1546,13 +1525,13 @@
         <v>13</v>
       </c>
       <c r="B7">
-        <v>0.03019744483159117</v>
+        <v>0.03638497652582159</v>
       </c>
       <c r="C7">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D7">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -1564,19 +1543,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="K7">
-        <v>0.04779411764705882</v>
+        <v>0.0457280385078219</v>
       </c>
       <c r="L7">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M7">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -1588,7 +1567,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1596,7 +1575,7 @@
         <v>14</v>
       </c>
       <c r="B8">
-        <v>0.02671312427409988</v>
+        <v>0.02699530516431925</v>
       </c>
       <c r="C8">
         <v>23</v>
@@ -1614,19 +1593,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>22</v>
+        <v>107</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="K8">
-        <v>0.03553921568627451</v>
+        <v>0.03610108303249097</v>
       </c>
       <c r="L8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -1638,7 +1617,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1646,13 +1625,13 @@
         <v>15</v>
       </c>
       <c r="B9">
-        <v>0.02439024390243903</v>
+        <v>0.02699530516431925</v>
       </c>
       <c r="C9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -1664,19 +1643,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="K9">
-        <v>0.03063725490196078</v>
+        <v>0.02767749699157641</v>
       </c>
       <c r="L9">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M9">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -1688,7 +1667,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>11</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1696,37 +1675,37 @@
         <v>16</v>
       </c>
       <c r="B10">
-        <v>0.02322880371660859</v>
+        <v>0.02230046948356807</v>
       </c>
       <c r="C10">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D10">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E10">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="G10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>2764</v>
+        <v>11</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="K10">
-        <v>0.02941176470588235</v>
+        <v>0.02647412755716005</v>
       </c>
       <c r="L10">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M10">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -1738,7 +1717,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>13</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1746,13 +1725,13 @@
         <v>17</v>
       </c>
       <c r="B11">
-        <v>0.02322880371660859</v>
+        <v>0.02112676056338028</v>
       </c>
       <c r="C11">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D11">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -1764,19 +1743,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="K11">
-        <v>0.02818627450980392</v>
+        <v>0.02647412755716005</v>
       </c>
       <c r="L11">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M11">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -1788,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1796,13 +1775,13 @@
         <v>18</v>
       </c>
       <c r="B12">
-        <v>0.02206736353077816</v>
+        <v>0.02112676056338028</v>
       </c>
       <c r="C12">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D12">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -1814,19 +1793,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>111</v>
+        <v>21</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="K12">
-        <v>0.02573529411764706</v>
+        <v>0.02647412755716005</v>
       </c>
       <c r="L12">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M12">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -1838,7 +1817,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1846,37 +1825,37 @@
         <v>19</v>
       </c>
       <c r="B13">
-        <v>0.02206736353077816</v>
+        <v>0.0187793427230047</v>
       </c>
       <c r="C13">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D13">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13">
+        <v>2768</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="K13">
+        <v>0.02527075812274368</v>
+      </c>
+      <c r="L13">
         <v>21</v>
       </c>
-      <c r="J13" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="K13">
-        <v>0.0232843137254902</v>
-      </c>
-      <c r="L13">
-        <v>19</v>
-      </c>
       <c r="M13">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -1888,7 +1867,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1896,13 +1875,13 @@
         <v>20</v>
       </c>
       <c r="B14">
-        <v>0.02090592334494774</v>
+        <v>0.0176056338028169</v>
       </c>
       <c r="C14">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D14">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -1914,19 +1893,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="K14">
-        <v>0.02205882352941177</v>
+        <v>0.02286401925391095</v>
       </c>
       <c r="L14">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M14">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1938,7 +1917,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>43</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1946,7 +1925,7 @@
         <v>21</v>
       </c>
       <c r="B15">
-        <v>0.01742160278745645</v>
+        <v>0.0176056338028169</v>
       </c>
       <c r="C15">
         <v>15</v>
@@ -1964,19 +1943,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="K15">
-        <v>0.01470588235294118</v>
+        <v>0.01564380264741276</v>
       </c>
       <c r="L15">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M15">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1988,7 +1967,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1996,13 +1975,13 @@
         <v>22</v>
       </c>
       <c r="B16">
-        <v>0.01742160278745645</v>
+        <v>0.01643192488262911</v>
       </c>
       <c r="C16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -2014,13 +1993,13 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="K16">
-        <v>0.01348039215686275</v>
+        <v>0.01323706377858002</v>
       </c>
       <c r="L16">
         <v>11</v>
@@ -2038,7 +2017,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -2046,13 +2025,13 @@
         <v>23</v>
       </c>
       <c r="B17">
-        <v>0.01393728222996516</v>
+        <v>0.01643192488262911</v>
       </c>
       <c r="C17">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D17">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -2064,19 +2043,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="K17">
-        <v>0.01225490196078431</v>
+        <v>0.01323706377858002</v>
       </c>
       <c r="L17">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M17">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -2088,7 +2067,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>24</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -2096,13 +2075,13 @@
         <v>24</v>
       </c>
       <c r="B18">
-        <v>0.01393728222996516</v>
+        <v>0.01643192488262911</v>
       </c>
       <c r="C18">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D18">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -2114,19 +2093,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="K18">
-        <v>0.01225490196078431</v>
+        <v>0.01323706377858002</v>
       </c>
       <c r="L18">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M18">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -2138,7 +2117,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -2146,13 +2125,13 @@
         <v>25</v>
       </c>
       <c r="B19">
-        <v>0.01393728222996516</v>
+        <v>0.01643192488262911</v>
       </c>
       <c r="C19">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D19">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -2164,13 +2143,13 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="K19">
-        <v>0.01225490196078431</v>
+        <v>0.01203369434416366</v>
       </c>
       <c r="L19">
         <v>10</v>
@@ -2188,7 +2167,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>31</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -2196,13 +2175,13 @@
         <v>26</v>
       </c>
       <c r="B20">
-        <v>0.01277584204413473</v>
+        <v>0.01408450704225352</v>
       </c>
       <c r="C20">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D20">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -2214,13 +2193,13 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>92</v>
+        <v>23</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="K20">
-        <v>0.01102941176470588</v>
+        <v>0.01083032490974729</v>
       </c>
       <c r="L20">
         <v>9</v>
@@ -2238,7 +2217,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>2</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -2246,7 +2225,7 @@
         <v>27</v>
       </c>
       <c r="B21">
-        <v>0.01277584204413473</v>
+        <v>0.01291079812206573</v>
       </c>
       <c r="C21">
         <v>11</v>
@@ -2264,19 +2243,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="K21">
-        <v>0.01102941176470588</v>
+        <v>0.009626955475330927</v>
       </c>
       <c r="L21">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M21">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -2288,7 +2267,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>9</v>
+        <v>377</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -2296,37 +2275,37 @@
         <v>28</v>
       </c>
       <c r="B22">
-        <v>0.01277584204413473</v>
+        <v>0.01173708920187793</v>
       </c>
       <c r="C22">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D22">
         <v>11</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22">
-        <v>12</v>
+        <v>3917</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="K22">
-        <v>0.009803921568627451</v>
+        <v>0.00842358604091456</v>
       </c>
       <c r="L22">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M22">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -2338,7 +2317,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -2346,13 +2325,13 @@
         <v>29</v>
       </c>
       <c r="B23">
-        <v>0.01277584204413473</v>
+        <v>0.01173708920187793</v>
       </c>
       <c r="C23">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D23">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -2364,13 +2343,13 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="K23">
-        <v>0.00857843137254902</v>
+        <v>0.00842358604091456</v>
       </c>
       <c r="L23">
         <v>7</v>
@@ -2388,7 +2367,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>88</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -2396,7 +2375,7 @@
         <v>30</v>
       </c>
       <c r="B24">
-        <v>0.0116144018583043</v>
+        <v>0.01173708920187793</v>
       </c>
       <c r="C24">
         <v>10</v>
@@ -2414,13 +2393,13 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>3918</v>
+        <v>6</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="K24">
-        <v>0.007352941176470588</v>
+        <v>0.007220216606498195</v>
       </c>
       <c r="L24">
         <v>6</v>
@@ -2438,7 +2417,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -2446,13 +2425,13 @@
         <v>31</v>
       </c>
       <c r="B25">
-        <v>0.0116144018583043</v>
+        <v>0.01056338028169014</v>
       </c>
       <c r="C25">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D25">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -2464,13 +2443,13 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>7</v>
+        <v>94</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="K25">
-        <v>0.006127450980392157</v>
+        <v>0.006016847172081829</v>
       </c>
       <c r="L25">
         <v>5</v>
@@ -2488,7 +2467,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>49</v>
+        <v>278</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -2496,31 +2475,31 @@
         <v>32</v>
       </c>
       <c r="B26">
-        <v>0.01045296167247387</v>
+        <v>0.009389671361502348</v>
       </c>
       <c r="C26">
+        <v>8</v>
+      </c>
+      <c r="D26">
+        <v>8</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26" t="b">
+        <v>0</v>
+      </c>
+      <c r="H26">
         <v>9</v>
       </c>
-      <c r="D26">
-        <v>9</v>
-      </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26">
-        <v>0</v>
-      </c>
-      <c r="G26" t="b">
-        <v>0</v>
-      </c>
-      <c r="H26">
-        <v>7</v>
-      </c>
       <c r="J26" s="1" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="K26">
-        <v>0.006127450980392157</v>
+        <v>0.006016847172081829</v>
       </c>
       <c r="L26">
         <v>5</v>
@@ -2538,7 +2517,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -2546,13 +2525,13 @@
         <v>33</v>
       </c>
       <c r="B27">
-        <v>0.01045296167247387</v>
+        <v>0.009389671361502348</v>
       </c>
       <c r="C27">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D27">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -2564,31 +2543,31 @@
         <v>0</v>
       </c>
       <c r="H27">
+        <v>98</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K27">
+        <v>0.004813477737665463</v>
+      </c>
+      <c r="L27">
         <v>4</v>
       </c>
-      <c r="J27" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="K27">
-        <v>0.006127450980392157</v>
-      </c>
-      <c r="L27">
-        <v>5</v>
-      </c>
       <c r="M27">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="N27">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="O27">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="P27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q27">
-        <v>8</v>
+        <v>2768</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2596,7 +2575,7 @@
         <v>34</v>
       </c>
       <c r="B28">
-        <v>0.009291521486643438</v>
+        <v>0.009389671361502348</v>
       </c>
       <c r="C28">
         <v>8</v>
@@ -2614,19 +2593,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="K28">
-        <v>0.006127450980392157</v>
+        <v>0.004813477737665463</v>
       </c>
       <c r="L28">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M28">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N28">
         <v>0</v>
@@ -2638,7 +2617,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>380</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2646,13 +2625,13 @@
         <v>35</v>
       </c>
       <c r="B29">
-        <v>0.008130081300813009</v>
+        <v>0.009389671361502348</v>
       </c>
       <c r="C29">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D29">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -2664,19 +2643,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>233</v>
+        <v>9</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="K29">
-        <v>0.006127450980392157</v>
+        <v>0.004813477737665463</v>
       </c>
       <c r="L29">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M29">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N29">
         <v>0</v>
@@ -2688,7 +2667,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2696,13 +2675,13 @@
         <v>36</v>
       </c>
       <c r="B30">
-        <v>0.008130081300813009</v>
+        <v>0.009389671361502348</v>
       </c>
       <c r="C30">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D30">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -2714,31 +2693,31 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>16</v>
+        <v>180</v>
       </c>
       <c r="K30">
-        <v>0.004901960784313725</v>
+        <v>0.004813477737665463</v>
       </c>
       <c r="L30">
         <v>4</v>
       </c>
       <c r="M30">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="N30">
-        <v>0.83</v>
+        <v>0</v>
       </c>
       <c r="O30">
-        <v>0.17</v>
+        <v>1</v>
       </c>
       <c r="P30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q30">
-        <v>2764</v>
+        <v>627</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2746,7 +2725,7 @@
         <v>37</v>
       </c>
       <c r="B31">
-        <v>0.008130081300813009</v>
+        <v>0.008215962441314555</v>
       </c>
       <c r="C31">
         <v>7</v>
@@ -2764,13 +2743,13 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="K31">
-        <v>0.004901960784313725</v>
+        <v>0.004813477737665463</v>
       </c>
       <c r="L31">
         <v>4</v>
@@ -2788,7 +2767,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2796,7 +2775,7 @@
         <v>38</v>
       </c>
       <c r="B32">
-        <v>0.008130081300813009</v>
+        <v>0.008215962441314555</v>
       </c>
       <c r="C32">
         <v>7</v>
@@ -2814,31 +2793,31 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>51</v>
+        <v>182</v>
       </c>
       <c r="K32">
-        <v>0.004901960784313725</v>
+        <v>0.004813477737665463</v>
       </c>
       <c r="L32">
         <v>4</v>
       </c>
       <c r="M32">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="N32">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="O32">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="P32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q32">
-        <v>954</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2846,31 +2825,31 @@
         <v>39</v>
       </c>
       <c r="B33">
-        <v>0.006968641114982578</v>
+        <v>0.007042253521126761</v>
       </c>
       <c r="C33">
         <v>6</v>
       </c>
       <c r="D33">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E33">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="F33">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="G33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H33">
-        <v>726</v>
+        <v>48</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="K33">
-        <v>0.004901960784313725</v>
+        <v>0.004813477737665463</v>
       </c>
       <c r="L33">
         <v>4</v>
@@ -2888,7 +2867,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>111</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2896,7 +2875,7 @@
         <v>40</v>
       </c>
       <c r="B34">
-        <v>0.006968641114982578</v>
+        <v>0.007042253521126761</v>
       </c>
       <c r="C34">
         <v>6</v>
@@ -2914,31 +2893,31 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>22</v>
+        <v>234</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>194</v>
+        <v>112</v>
       </c>
       <c r="K34">
-        <v>0.004901960784313725</v>
+        <v>0.003610108303249098</v>
       </c>
       <c r="L34">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M34">
         <v>4</v>
       </c>
       <c r="N34">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="O34">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="P34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q34">
-        <v>708</v>
+        <v>729</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2946,7 +2925,7 @@
         <v>41</v>
       </c>
       <c r="B35">
-        <v>0.006968641114982578</v>
+        <v>0.007042253521126761</v>
       </c>
       <c r="C35">
         <v>6</v>
@@ -2964,19 +2943,19 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>119</v>
+        <v>16</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="K35">
-        <v>0.004901960784313725</v>
+        <v>0.003610108303249098</v>
       </c>
       <c r="L35">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M35">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N35">
         <v>0</v>
@@ -2988,7 +2967,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2996,7 +2975,7 @@
         <v>42</v>
       </c>
       <c r="B36">
-        <v>0.006968641114982578</v>
+        <v>0.007042253521126761</v>
       </c>
       <c r="C36">
         <v>6</v>
@@ -3017,16 +2996,16 @@
         <v>10</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="K36">
-        <v>0.004901960784313725</v>
+        <v>0.003610108303249098</v>
       </c>
       <c r="L36">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M36">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N36">
         <v>0</v>
@@ -3038,7 +3017,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -3046,49 +3025,49 @@
         <v>43</v>
       </c>
       <c r="B37">
-        <v>0.006968641114982578</v>
+        <v>0.005868544600938967</v>
       </c>
       <c r="C37">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D37">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>0.62</v>
       </c>
       <c r="F37">
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="G37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H37">
-        <v>7</v>
+        <v>954</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>197</v>
+        <v>43</v>
       </c>
       <c r="K37">
-        <v>0.003676470588235294</v>
+        <v>0.003610108303249098</v>
       </c>
       <c r="L37">
         <v>3</v>
       </c>
       <c r="M37">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="N37">
-        <v>0</v>
+        <v>0.62</v>
       </c>
       <c r="O37">
-        <v>1</v>
+        <v>0.38</v>
       </c>
       <c r="P37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q37">
-        <v>2</v>
+        <v>954</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -3096,31 +3075,31 @@
         <v>44</v>
       </c>
       <c r="B38">
-        <v>0.005807200929152149</v>
+        <v>0.005868544600938967</v>
       </c>
       <c r="C38">
         <v>5</v>
       </c>
       <c r="D38">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E38">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="F38">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="G38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H38">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="K38">
-        <v>0.003676470588235294</v>
+        <v>0.003610108303249098</v>
       </c>
       <c r="L38">
         <v>3</v>
@@ -3138,7 +3117,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>2</v>
+        <v>709</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -3146,7 +3125,7 @@
         <v>45</v>
       </c>
       <c r="B39">
-        <v>0.005807200929152149</v>
+        <v>0.005868544600938967</v>
       </c>
       <c r="C39">
         <v>5</v>
@@ -3164,31 +3143,31 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>199</v>
+        <v>47</v>
       </c>
       <c r="K39">
-        <v>0.003676470588235294</v>
+        <v>0.003610108303249098</v>
       </c>
       <c r="L39">
         <v>3</v>
       </c>
       <c r="M39">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="N39">
-        <v>0</v>
+        <v>0.62</v>
       </c>
       <c r="O39">
-        <v>1</v>
+        <v>0.38</v>
       </c>
       <c r="P39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q39">
-        <v>51</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -3196,7 +3175,7 @@
         <v>46</v>
       </c>
       <c r="B40">
-        <v>0.005807200929152149</v>
+        <v>0.005868544600938967</v>
       </c>
       <c r="C40">
         <v>5</v>
@@ -3214,31 +3193,31 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>56</v>
+        <v>187</v>
       </c>
       <c r="K40">
-        <v>0.003676470588235294</v>
+        <v>0.003610108303249098</v>
       </c>
       <c r="L40">
         <v>3</v>
       </c>
       <c r="M40">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="N40">
-        <v>0.57</v>
+        <v>0</v>
       </c>
       <c r="O40">
-        <v>0.43</v>
+        <v>1</v>
       </c>
       <c r="P40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q40">
-        <v>1140</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -3246,31 +3225,31 @@
         <v>47</v>
       </c>
       <c r="B41">
-        <v>0.005807200929152149</v>
+        <v>0.005868544600938967</v>
       </c>
       <c r="C41">
         <v>5</v>
       </c>
       <c r="D41">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E41">
-        <v>1</v>
+        <v>0.62</v>
       </c>
       <c r="F41">
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="G41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H41">
-        <v>7</v>
+        <v>1728</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="K41">
-        <v>0.003676470588235294</v>
+        <v>0.003610108303249098</v>
       </c>
       <c r="L41">
         <v>3</v>
@@ -3288,7 +3267,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -3296,7 +3275,7 @@
         <v>48</v>
       </c>
       <c r="B42">
-        <v>0.005807200929152149</v>
+        <v>0.005868544600938967</v>
       </c>
       <c r="C42">
         <v>5</v>
@@ -3314,13 +3293,13 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="K42">
-        <v>0.003676470588235294</v>
+        <v>0.003610108303249098</v>
       </c>
       <c r="L42">
         <v>3</v>
@@ -3338,7 +3317,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>146</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -3346,7 +3325,7 @@
         <v>49</v>
       </c>
       <c r="B43">
-        <v>0.005807200929152149</v>
+        <v>0.005868544600938967</v>
       </c>
       <c r="C43">
         <v>5</v>
@@ -3364,13 +3343,13 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="K43">
-        <v>0.003676470588235294</v>
+        <v>0.003610108303249098</v>
       </c>
       <c r="L43">
         <v>3</v>
@@ -3388,7 +3367,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -3396,7 +3375,7 @@
         <v>50</v>
       </c>
       <c r="B44">
-        <v>0.005807200929152149</v>
+        <v>0.005868544600938967</v>
       </c>
       <c r="C44">
         <v>5</v>
@@ -3414,13 +3393,13 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="K44">
-        <v>0.003676470588235294</v>
+        <v>0.003610108303249098</v>
       </c>
       <c r="L44">
         <v>3</v>
@@ -3438,7 +3417,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>23</v>
+        <v>202</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -3446,31 +3425,31 @@
         <v>51</v>
       </c>
       <c r="B45">
-        <v>0.004645760743321719</v>
+        <v>0.005868544600938967</v>
       </c>
       <c r="C45">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D45">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E45">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F45">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H45">
-        <v>954</v>
+        <v>6</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="K45">
-        <v>0.003676470588235294</v>
+        <v>0.003610108303249098</v>
       </c>
       <c r="L45">
         <v>3</v>
@@ -3488,7 +3467,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>26</v>
+        <v>5</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -3496,31 +3475,31 @@
         <v>52</v>
       </c>
       <c r="B46">
-        <v>0.004645760743321719</v>
+        <v>0.004694835680751174</v>
       </c>
       <c r="C46">
         <v>4</v>
       </c>
       <c r="D46">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E46">
-        <v>0.67</v>
+        <v>0.8</v>
       </c>
       <c r="F46">
-        <v>0.33</v>
+        <v>0.2</v>
       </c>
       <c r="G46" t="b">
         <v>1</v>
       </c>
       <c r="H46">
-        <v>293</v>
+        <v>366</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="K46">
-        <v>0.003676470588235294</v>
+        <v>0.003610108303249098</v>
       </c>
       <c r="L46">
         <v>3</v>
@@ -3538,7 +3517,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -3546,7 +3525,7 @@
         <v>53</v>
       </c>
       <c r="B47">
-        <v>0.004645760743321719</v>
+        <v>0.004694835680751174</v>
       </c>
       <c r="C47">
         <v>4</v>
@@ -3564,13 +3543,13 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>43</v>
+        <v>295</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="K47">
-        <v>0.003676470588235294</v>
+        <v>0.003610108303249098</v>
       </c>
       <c r="L47">
         <v>3</v>
@@ -3588,7 +3567,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>47</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -3596,7 +3575,7 @@
         <v>54</v>
       </c>
       <c r="B48">
-        <v>0.004645760743321719</v>
+        <v>0.004694835680751174</v>
       </c>
       <c r="C48">
         <v>4</v>
@@ -3614,13 +3593,13 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="K48">
-        <v>0.003676470588235294</v>
+        <v>0.003610108303249098</v>
       </c>
       <c r="L48">
         <v>3</v>
@@ -3638,7 +3617,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="49" spans="1:17">
@@ -3646,37 +3625,37 @@
         <v>55</v>
       </c>
       <c r="B49">
-        <v>0.004645760743321719</v>
+        <v>0.004694835680751174</v>
       </c>
       <c r="C49">
         <v>4</v>
       </c>
       <c r="D49">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E49">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H49">
-        <v>50</v>
+        <v>1041</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="K49">
-        <v>0.002450980392156863</v>
+        <v>0.003610108303249098</v>
       </c>
       <c r="L49">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M49">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N49">
         <v>0</v>
@@ -3688,7 +3667,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>113</v>
+        <v>45</v>
       </c>
     </row>
     <row r="50" spans="1:17">
@@ -3696,31 +3675,31 @@
         <v>56</v>
       </c>
       <c r="B50">
-        <v>0.004645760743321719</v>
+        <v>0.004694835680751174</v>
       </c>
       <c r="C50">
         <v>4</v>
       </c>
       <c r="D50">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E50">
-        <v>0.57</v>
+        <v>1</v>
       </c>
       <c r="F50">
-        <v>0.43</v>
+        <v>0</v>
       </c>
       <c r="G50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H50">
-        <v>1140</v>
+        <v>445</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="K50">
-        <v>0.002450980392156863</v>
+        <v>0.002406738868832732</v>
       </c>
       <c r="L50">
         <v>2</v>
@@ -3738,7 +3717,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>343</v>
+        <v>52</v>
       </c>
     </row>
     <row r="51" spans="1:17">
@@ -3746,7 +3725,7 @@
         <v>57</v>
       </c>
       <c r="B51">
-        <v>0.004645760743321719</v>
+        <v>0.004694835680751174</v>
       </c>
       <c r="C51">
         <v>4</v>
@@ -3764,13 +3743,13 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>11</v>
+        <v>97</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="K51">
-        <v>0.002450980392156863</v>
+        <v>0.002406738868832732</v>
       </c>
       <c r="L51">
         <v>2</v>
@@ -3796,7 +3775,7 @@
         <v>58</v>
       </c>
       <c r="B52">
-        <v>0.004645760743321719</v>
+        <v>0.004694835680751174</v>
       </c>
       <c r="C52">
         <v>4</v>
@@ -3814,13 +3793,13 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="K52">
-        <v>0.002450980392156863</v>
+        <v>0.002406738868832732</v>
       </c>
       <c r="L52">
         <v>2</v>
@@ -3838,7 +3817,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>876</v>
+        <v>367</v>
       </c>
     </row>
     <row r="53" spans="1:17">
@@ -3846,7 +3825,7 @@
         <v>59</v>
       </c>
       <c r="B53">
-        <v>0.004645760743321719</v>
+        <v>0.004694835680751174</v>
       </c>
       <c r="C53">
         <v>4</v>
@@ -3864,31 +3843,31 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>212</v>
+        <v>107</v>
       </c>
       <c r="K53">
-        <v>0.002450980392156863</v>
+        <v>0.002406738868832732</v>
       </c>
       <c r="L53">
         <v>2</v>
       </c>
       <c r="M53">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N53">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="O53">
-        <v>1</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="P53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q53">
-        <v>196</v>
+        <v>875</v>
       </c>
     </row>
     <row r="54" spans="1:17">
@@ -3896,7 +3875,7 @@
         <v>60</v>
       </c>
       <c r="B54">
-        <v>0.004645760743321719</v>
+        <v>0.004694835680751174</v>
       </c>
       <c r="C54">
         <v>4</v>
@@ -3914,13 +3893,13 @@
         <v>0</v>
       </c>
       <c r="H54">
-        <v>9</v>
+        <v>121</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="K54">
-        <v>0.002450980392156863</v>
+        <v>0.002406738868832732</v>
       </c>
       <c r="L54">
         <v>2</v>
@@ -3938,7 +3917,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>14</v>
+        <v>548</v>
       </c>
     </row>
     <row r="55" spans="1:17">
@@ -3946,7 +3925,7 @@
         <v>61</v>
       </c>
       <c r="B55">
-        <v>0.004645760743321719</v>
+        <v>0.004694835680751174</v>
       </c>
       <c r="C55">
         <v>4</v>
@@ -3964,31 +3943,31 @@
         <v>0</v>
       </c>
       <c r="H55">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>64</v>
+        <v>201</v>
       </c>
       <c r="K55">
-        <v>0.002450980392156863</v>
+        <v>0.002406738868832732</v>
       </c>
       <c r="L55">
         <v>2</v>
       </c>
       <c r="M55">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N55">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="O55">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="P55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q55">
-        <v>1041</v>
+        <v>113</v>
       </c>
     </row>
     <row r="56" spans="1:17">
@@ -3996,13 +3975,13 @@
         <v>62</v>
       </c>
       <c r="B56">
-        <v>0.003484320557491289</v>
+        <v>0.004694835680751174</v>
       </c>
       <c r="C56">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D56">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E56">
         <v>1</v>
@@ -4014,31 +3993,31 @@
         <v>0</v>
       </c>
       <c r="H56">
-        <v>447</v>
+        <v>31</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>52</v>
+        <v>202</v>
       </c>
       <c r="K56">
-        <v>0.002450980392156863</v>
+        <v>0.002406738868832732</v>
       </c>
       <c r="L56">
         <v>2</v>
       </c>
       <c r="M56">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="N56">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="O56">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="P56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q56">
-        <v>293</v>
+        <v>59</v>
       </c>
     </row>
     <row r="57" spans="1:17">
@@ -4046,49 +4025,49 @@
         <v>63</v>
       </c>
       <c r="B57">
-        <v>0.003484320557491289</v>
+        <v>0.004694835680751174</v>
       </c>
       <c r="C57">
+        <v>4</v>
+      </c>
+      <c r="D57">
+        <v>4</v>
+      </c>
+      <c r="E57">
+        <v>1</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57" t="b">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>9</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="K57">
+        <v>0.002406738868832732</v>
+      </c>
+      <c r="L57">
+        <v>2</v>
+      </c>
+      <c r="M57">
+        <v>2</v>
+      </c>
+      <c r="N57">
+        <v>0</v>
+      </c>
+      <c r="O57">
+        <v>1</v>
+      </c>
+      <c r="P57" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q57">
         <v>3</v>
-      </c>
-      <c r="D57">
-        <v>3</v>
-      </c>
-      <c r="E57">
-        <v>1</v>
-      </c>
-      <c r="F57">
-        <v>0</v>
-      </c>
-      <c r="G57" t="b">
-        <v>0</v>
-      </c>
-      <c r="H57">
-        <v>368</v>
-      </c>
-      <c r="J57" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="K57">
-        <v>0.002450980392156863</v>
-      </c>
-      <c r="L57">
-        <v>2</v>
-      </c>
-      <c r="M57">
-        <v>2</v>
-      </c>
-      <c r="N57">
-        <v>0</v>
-      </c>
-      <c r="O57">
-        <v>1</v>
-      </c>
-      <c r="P57" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q57">
-        <v>200</v>
       </c>
     </row>
     <row r="58" spans="1:17">
@@ -4096,31 +4075,31 @@
         <v>64</v>
       </c>
       <c r="B58">
-        <v>0.003484320557491289</v>
+        <v>0.004694835680751174</v>
       </c>
       <c r="C58">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D58">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E58">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="F58">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="G58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H58">
-        <v>1041</v>
+        <v>15</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="K58">
-        <v>0.002450980392156863</v>
+        <v>0.002406738868832732</v>
       </c>
       <c r="L58">
         <v>2</v>
@@ -4138,7 +4117,7 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>3</v>
+        <v>40</v>
       </c>
     </row>
     <row r="59" spans="1:17">
@@ -4146,31 +4125,31 @@
         <v>65</v>
       </c>
       <c r="B59">
-        <v>0.003484320557491289</v>
+        <v>0.00352112676056338</v>
       </c>
       <c r="C59">
         <v>3</v>
       </c>
       <c r="D59">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E59">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="F59">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="G59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H59">
-        <v>103</v>
+        <v>446</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="K59">
-        <v>0.002450980392156863</v>
+        <v>0.002406738868832732</v>
       </c>
       <c r="L59">
         <v>2</v>
@@ -4188,7 +4167,7 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>19</v>
+        <v>6</v>
       </c>
     </row>
     <row r="60" spans="1:17">
@@ -4196,7 +4175,7 @@
         <v>66</v>
       </c>
       <c r="B60">
-        <v>0.003484320557491289</v>
+        <v>0.00352112676056338</v>
       </c>
       <c r="C60">
         <v>3</v>
@@ -4214,13 +4193,13 @@
         <v>0</v>
       </c>
       <c r="H60">
-        <v>22</v>
+        <v>134</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="K60">
-        <v>0.002450980392156863</v>
+        <v>0.002406738868832732</v>
       </c>
       <c r="L60">
         <v>2</v>
@@ -4238,7 +4217,7 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>44</v>
+        <v>339</v>
       </c>
     </row>
     <row r="61" spans="1:17">
@@ -4246,7 +4225,7 @@
         <v>67</v>
       </c>
       <c r="B61">
-        <v>0.003484320557491289</v>
+        <v>0.00352112676056338</v>
       </c>
       <c r="C61">
         <v>3</v>
@@ -4264,13 +4243,13 @@
         <v>0</v>
       </c>
       <c r="H61">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="K61">
-        <v>0.002450980392156863</v>
+        <v>0.002406738868832732</v>
       </c>
       <c r="L61">
         <v>2</v>
@@ -4288,7 +4267,7 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>12</v>
+        <v>71</v>
       </c>
     </row>
     <row r="62" spans="1:17">
@@ -4296,7 +4275,7 @@
         <v>68</v>
       </c>
       <c r="B62">
-        <v>0.003484320557491289</v>
+        <v>0.00352112676056338</v>
       </c>
       <c r="C62">
         <v>3</v>
@@ -4314,13 +4293,13 @@
         <v>0</v>
       </c>
       <c r="H62">
-        <v>16</v>
+        <v>141</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="K62">
-        <v>0.002450980392156863</v>
+        <v>0.002406738868832732</v>
       </c>
       <c r="L62">
         <v>2</v>
@@ -4338,7 +4317,7 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>281</v>
+        <v>19</v>
       </c>
     </row>
     <row r="63" spans="1:17">
@@ -4346,7 +4325,7 @@
         <v>69</v>
       </c>
       <c r="B63">
-        <v>0.003484320557491289</v>
+        <v>0.00352112676056338</v>
       </c>
       <c r="C63">
         <v>3</v>
@@ -4364,31 +4343,31 @@
         <v>0</v>
       </c>
       <c r="H63">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>220</v>
+        <v>80</v>
       </c>
       <c r="K63">
-        <v>0.002450980392156863</v>
+        <v>0.002406738868832732</v>
       </c>
       <c r="L63">
         <v>2</v>
       </c>
       <c r="M63">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N63">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="O63">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="P63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q63">
-        <v>313</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="64" spans="1:17">
@@ -4396,7 +4375,7 @@
         <v>70</v>
       </c>
       <c r="B64">
-        <v>0.003484320557491289</v>
+        <v>0.00352112676056338</v>
       </c>
       <c r="C64">
         <v>3</v>
@@ -4414,13 +4393,13 @@
         <v>0</v>
       </c>
       <c r="H64">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="K64">
-        <v>0.002450980392156863</v>
+        <v>0.002406738868832732</v>
       </c>
       <c r="L64">
         <v>2</v>
@@ -4438,7 +4417,7 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="65" spans="1:17">
@@ -4446,7 +4425,7 @@
         <v>71</v>
       </c>
       <c r="B65">
-        <v>0.003484320557491289</v>
+        <v>0.00352112676056338</v>
       </c>
       <c r="C65">
         <v>3</v>
@@ -4467,10 +4446,10 @@
         <v>17</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="K65">
-        <v>0.002450980392156863</v>
+        <v>0.002406738868832732</v>
       </c>
       <c r="L65">
         <v>2</v>
@@ -4488,15 +4467,15 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>28</v>
+        <v>950</v>
       </c>
     </row>
     <row r="66" spans="1:17">
       <c r="A66" s="1" t="s">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="B66">
-        <v>0.003484320557491289</v>
+        <v>0.00352112676056338</v>
       </c>
       <c r="C66">
         <v>3</v>
@@ -4514,13 +4493,13 @@
         <v>0</v>
       </c>
       <c r="H66">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="K66">
-        <v>0.002450980392156863</v>
+        <v>0.002406738868832732</v>
       </c>
       <c r="L66">
         <v>2</v>
@@ -4538,15 +4517,15 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>46</v>
+        <v>276</v>
       </c>
     </row>
     <row r="67" spans="1:17">
       <c r="A67" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B67">
-        <v>0.003484320557491289</v>
+        <v>0.00352112676056338</v>
       </c>
       <c r="C67">
         <v>3</v>
@@ -4564,13 +4543,13 @@
         <v>0</v>
       </c>
       <c r="H67">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="K67">
-        <v>0.002450980392156863</v>
+        <v>0.002406738868832732</v>
       </c>
       <c r="L67">
         <v>2</v>
@@ -4588,15 +4567,15 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>9</v>
+        <v>24</v>
       </c>
     </row>
     <row r="68" spans="1:17">
       <c r="A68" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B68">
-        <v>0.003484320557491289</v>
+        <v>0.00352112676056338</v>
       </c>
       <c r="C68">
         <v>3</v>
@@ -4614,13 +4593,13 @@
         <v>0</v>
       </c>
       <c r="H68">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="K68">
-        <v>0.002450980392156863</v>
+        <v>0.002406738868832732</v>
       </c>
       <c r="L68">
         <v>2</v>
@@ -4638,21 +4617,21 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="69" spans="1:17">
       <c r="A69" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B69">
-        <v>0.002322880371660859</v>
+        <v>0.00352112676056338</v>
       </c>
       <c r="C69">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D69">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E69">
         <v>1</v>
@@ -4664,45 +4643,45 @@
         <v>0</v>
       </c>
       <c r="H69">
-        <v>113</v>
+        <v>11</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>226</v>
+        <v>79</v>
       </c>
       <c r="K69">
-        <v>0.002450980392156863</v>
+        <v>0.002406738868832732</v>
       </c>
       <c r="L69">
         <v>2</v>
       </c>
       <c r="M69">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N69">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="O69">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="P69" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q69">
-        <v>57</v>
+        <v>952</v>
       </c>
     </row>
     <row r="70" spans="1:17">
       <c r="A70" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B70">
-        <v>0.002322880371660859</v>
+        <v>0.00352112676056338</v>
       </c>
       <c r="C70">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D70">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E70">
         <v>1</v>
@@ -4714,13 +4693,13 @@
         <v>0</v>
       </c>
       <c r="H70">
-        <v>264</v>
+        <v>1</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
       <c r="K70">
-        <v>0.002450980392156863</v>
+        <v>0.002406738868832732</v>
       </c>
       <c r="L70">
         <v>2</v>
@@ -4738,15 +4717,15 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="71" spans="1:17">
       <c r="A71" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B71">
-        <v>0.002322880371660859</v>
+        <v>0.002347417840375587</v>
       </c>
       <c r="C71">
         <v>2</v>
@@ -4764,13 +4743,13 @@
         <v>0</v>
       </c>
       <c r="H71">
-        <v>27</v>
+        <v>113</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="K71">
-        <v>0.002450980392156863</v>
+        <v>0.002406738868832732</v>
       </c>
       <c r="L71">
         <v>2</v>
@@ -4788,39 +4767,39 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="72" spans="1:17">
       <c r="A72" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B72">
-        <v>0.002322880371660859</v>
+        <v>0.002347417840375587</v>
       </c>
       <c r="C72">
         <v>2</v>
       </c>
       <c r="D72">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E72">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="F72">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="G72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H72">
-        <v>953</v>
+        <v>264</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="K72">
-        <v>0.002450980392156863</v>
+        <v>0.002406738868832732</v>
       </c>
       <c r="L72">
         <v>2</v>
@@ -4838,39 +4817,39 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>28</v>
+        <v>7</v>
       </c>
     </row>
     <row r="73" spans="1:17">
       <c r="A73" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B73">
-        <v>0.002322880371660859</v>
+        <v>0.002347417840375587</v>
       </c>
       <c r="C73">
         <v>2</v>
       </c>
       <c r="D73">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E73">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F73">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H73">
-        <v>224</v>
+        <v>952</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="K73">
-        <v>0.002450980392156863</v>
+        <v>0.002406738868832732</v>
       </c>
       <c r="L73">
         <v>2</v>
@@ -4888,65 +4867,65 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>57</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:17">
       <c r="A74" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B74">
-        <v>0.002322880371660859</v>
+        <v>0.002347417840375587</v>
       </c>
       <c r="C74">
         <v>2</v>
       </c>
       <c r="D74">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E74">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="F74">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="G74" t="b">
         <v>1</v>
       </c>
       <c r="H74">
-        <v>1733</v>
+        <v>1143</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>39</v>
+        <v>218</v>
       </c>
       <c r="K74">
-        <v>0.001225490196078431</v>
+        <v>0.002406738868832732</v>
       </c>
       <c r="L74">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M74">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="N74">
-        <v>0.86</v>
+        <v>0</v>
       </c>
       <c r="O74">
-        <v>0.14</v>
+        <v>1</v>
       </c>
       <c r="P74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q74">
-        <v>726</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:17">
       <c r="A75" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B75">
-        <v>0.002322880371660859</v>
+        <v>0.002347417840375587</v>
       </c>
       <c r="C75">
         <v>2</v>
@@ -4964,19 +4943,19 @@
         <v>0</v>
       </c>
       <c r="H75">
-        <v>212</v>
+        <v>152</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="K75">
-        <v>0.001225490196078431</v>
+        <v>0.002406738868832732</v>
       </c>
       <c r="L75">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M75">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N75">
         <v>0</v>
@@ -4988,15 +4967,15 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="76" spans="1:17">
       <c r="A76" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B76">
-        <v>0.002322880371660859</v>
+        <v>0.002347417840375587</v>
       </c>
       <c r="C76">
         <v>2</v>
@@ -5014,19 +4993,19 @@
         <v>0</v>
       </c>
       <c r="H76">
-        <v>123</v>
+        <v>212</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="K76">
-        <v>0.001225490196078431</v>
+        <v>0.002406738868832732</v>
       </c>
       <c r="L76">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M76">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N76">
         <v>0</v>
@@ -5038,15 +5017,15 @@
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>41</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:17">
       <c r="A77" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B77">
-        <v>0.002322880371660859</v>
+        <v>0.002347417840375587</v>
       </c>
       <c r="C77">
         <v>2</v>
@@ -5064,19 +5043,19 @@
         <v>0</v>
       </c>
       <c r="H77">
-        <v>112</v>
+        <v>23</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="K77">
-        <v>0.001225490196078431</v>
+        <v>0.002406738868832732</v>
       </c>
       <c r="L77">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M77">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N77">
         <v>0</v>
@@ -5088,15 +5067,15 @@
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>157</v>
+        <v>48</v>
       </c>
     </row>
     <row r="78" spans="1:17">
       <c r="A78" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B78">
-        <v>0.002322880371660859</v>
+        <v>0.002347417840375587</v>
       </c>
       <c r="C78">
         <v>2</v>
@@ -5114,39 +5093,39 @@
         <v>0</v>
       </c>
       <c r="H78">
-        <v>99</v>
+        <v>10</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>127</v>
+        <v>222</v>
       </c>
       <c r="K78">
-        <v>0.001225490196078431</v>
+        <v>0.001203369434416366</v>
       </c>
       <c r="L78">
         <v>1</v>
       </c>
       <c r="M78">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N78">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="O78">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="P78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q78">
-        <v>950</v>
+        <v>6</v>
       </c>
     </row>
     <row r="79" spans="1:17">
       <c r="A79" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B79">
-        <v>0.002322880371660859</v>
+        <v>0.002347417840375587</v>
       </c>
       <c r="C79">
         <v>2</v>
@@ -5164,13 +5143,13 @@
         <v>0</v>
       </c>
       <c r="H79">
-        <v>10</v>
+        <v>295</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="K79">
-        <v>0.001225490196078431</v>
+        <v>0.001203369434416366</v>
       </c>
       <c r="L79">
         <v>1</v>
@@ -5188,15 +5167,15 @@
         <v>0</v>
       </c>
       <c r="Q79">
-        <v>251</v>
+        <v>344</v>
       </c>
     </row>
     <row r="80" spans="1:17">
       <c r="A80" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B80">
-        <v>0.002322880371660859</v>
+        <v>0.002347417840375587</v>
       </c>
       <c r="C80">
         <v>2</v>
@@ -5214,39 +5193,39 @@
         <v>0</v>
       </c>
       <c r="H80">
-        <v>69</v>
+        <v>22</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>235</v>
+        <v>44</v>
       </c>
       <c r="K80">
-        <v>0.001225490196078431</v>
+        <v>0.001203369434416366</v>
       </c>
       <c r="L80">
         <v>1</v>
       </c>
       <c r="M80">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="N80">
-        <v>0</v>
+        <v>0.83</v>
       </c>
       <c r="O80">
-        <v>1</v>
+        <v>0.17</v>
       </c>
       <c r="P80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q80">
-        <v>0</v>
+        <v>602</v>
       </c>
     </row>
     <row r="81" spans="1:17">
       <c r="A81" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B81">
-        <v>0.002322880371660859</v>
+        <v>0.002347417840375587</v>
       </c>
       <c r="C81">
         <v>2</v>
@@ -5264,39 +5243,39 @@
         <v>0</v>
       </c>
       <c r="H81">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>236</v>
+        <v>122</v>
       </c>
       <c r="K81">
-        <v>0.001225490196078431</v>
+        <v>0.001203369434416366</v>
       </c>
       <c r="L81">
         <v>1</v>
       </c>
       <c r="M81">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N81">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="O81">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="P81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q81">
-        <v>336</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="82" spans="1:17">
       <c r="A82" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B82">
-        <v>0.002322880371660859</v>
+        <v>0.002347417840375587</v>
       </c>
       <c r="C82">
         <v>2</v>
@@ -5314,39 +5293,39 @@
         <v>0</v>
       </c>
       <c r="H82">
+        <v>10</v>
+      </c>
+      <c r="J82" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K82">
+        <v>0.001203369434416366</v>
+      </c>
+      <c r="L82">
+        <v>1</v>
+      </c>
+      <c r="M82">
         <v>5</v>
       </c>
-      <c r="J82" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="K82">
-        <v>0.001225490196078431</v>
-      </c>
-      <c r="L82">
-        <v>1</v>
-      </c>
-      <c r="M82">
-        <v>1</v>
-      </c>
       <c r="N82">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="O82">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="P82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q82">
-        <v>18</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="83" spans="1:17">
       <c r="A83" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B83">
-        <v>0.002322880371660859</v>
+        <v>0.002347417840375587</v>
       </c>
       <c r="C83">
         <v>2</v>
@@ -5364,13 +5343,13 @@
         <v>0</v>
       </c>
       <c r="H83">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="K83">
-        <v>0.001225490196078431</v>
+        <v>0.001203369434416366</v>
       </c>
       <c r="L83">
         <v>1</v>
@@ -5388,65 +5367,65 @@
         <v>0</v>
       </c>
       <c r="Q83">
-        <v>72</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:17">
       <c r="A84" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B84">
-        <v>0.002322880371660859</v>
+        <v>0.002347417840375587</v>
       </c>
       <c r="C84">
         <v>2</v>
       </c>
       <c r="D84">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E84">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="F84">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="G84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H84">
-        <v>10</v>
+        <v>661</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>93</v>
+        <v>225</v>
       </c>
       <c r="K84">
-        <v>0.001225490196078431</v>
+        <v>0.001203369434416366</v>
       </c>
       <c r="L84">
         <v>1</v>
       </c>
       <c r="M84">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N84">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="O84">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="P84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q84">
-        <v>779</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:17">
       <c r="A85" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B85">
-        <v>0.002322880371660859</v>
+        <v>0.002347417840375587</v>
       </c>
       <c r="C85">
         <v>2</v>
@@ -5464,39 +5443,39 @@
         <v>0</v>
       </c>
       <c r="H85">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>111</v>
+        <v>28</v>
       </c>
       <c r="K85">
-        <v>0.001225490196078431</v>
+        <v>0.001203369434416366</v>
       </c>
       <c r="L85">
         <v>1</v>
       </c>
       <c r="M85">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="N85">
-        <v>0.5</v>
+        <v>0.91</v>
       </c>
       <c r="O85">
-        <v>0.5</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="P85" t="b">
         <v>1</v>
       </c>
       <c r="Q85">
-        <v>276</v>
+        <v>3917</v>
       </c>
     </row>
     <row r="86" spans="1:17">
       <c r="A86" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B86">
-        <v>0.002322880371660859</v>
+        <v>0.002347417840375587</v>
       </c>
       <c r="C86">
         <v>2</v>
@@ -5514,13 +5493,13 @@
         <v>0</v>
       </c>
       <c r="H86">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="K86">
-        <v>0.001225490196078431</v>
+        <v>0.001203369434416366</v>
       </c>
       <c r="L86">
         <v>1</v>
@@ -5543,10 +5522,10 @@
     </row>
     <row r="87" spans="1:17">
       <c r="A87" s="1" t="s">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="B87">
-        <v>0.002322880371660859</v>
+        <v>0.002347417840375587</v>
       </c>
       <c r="C87">
         <v>2</v>
@@ -5564,31 +5543,31 @@
         <v>0</v>
       </c>
       <c r="H87">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>120</v>
+        <v>65</v>
       </c>
       <c r="K87">
-        <v>0.001225490196078431</v>
+        <v>0.001203369434416366</v>
       </c>
       <c r="L87">
         <v>1</v>
       </c>
       <c r="M87">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N87">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="O87">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="P87" t="b">
         <v>1</v>
       </c>
       <c r="Q87">
-        <v>436</v>
+        <v>446</v>
       </c>
     </row>
     <row r="88" spans="1:17">
@@ -5596,7 +5575,7 @@
         <v>93</v>
       </c>
       <c r="B88">
-        <v>0.00116144018583043</v>
+        <v>0.001173708920187793</v>
       </c>
       <c r="C88">
         <v>1</v>
@@ -5617,10 +5596,10 @@
         <v>779</v>
       </c>
       <c r="J88" s="1" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="K88">
-        <v>0.001225490196078431</v>
+        <v>0.001203369434416366</v>
       </c>
       <c r="L88">
         <v>1</v>
@@ -5638,7 +5617,7 @@
         <v>0</v>
       </c>
       <c r="Q88">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="89" spans="1:17">
@@ -5646,7 +5625,7 @@
         <v>94</v>
       </c>
       <c r="B89">
-        <v>0.00116144018583043</v>
+        <v>0.001173708920187793</v>
       </c>
       <c r="C89">
         <v>1</v>
@@ -5667,28 +5646,28 @@
         <v>2</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>79</v>
+        <v>228</v>
       </c>
       <c r="K89">
-        <v>0.001225490196078431</v>
+        <v>0.001203369434416366</v>
       </c>
       <c r="L89">
         <v>1</v>
       </c>
       <c r="M89">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N89">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="O89">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="P89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q89">
-        <v>1733</v>
+        <v>314</v>
       </c>
     </row>
     <row r="90" spans="1:17">
@@ -5696,7 +5675,7 @@
         <v>95</v>
       </c>
       <c r="B90">
-        <v>0.00116144018583043</v>
+        <v>0.001173708920187793</v>
       </c>
       <c r="C90">
         <v>1</v>
@@ -5714,13 +5693,13 @@
         <v>0</v>
       </c>
       <c r="H90">
-        <v>136</v>
+        <v>39</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="K90">
-        <v>0.001225490196078431</v>
+        <v>0.001203369434416366</v>
       </c>
       <c r="L90">
         <v>1</v>
@@ -5738,7 +5717,7 @@
         <v>0</v>
       </c>
       <c r="Q90">
-        <v>8</v>
+        <v>148</v>
       </c>
     </row>
     <row r="91" spans="1:17">
@@ -5746,7 +5725,7 @@
         <v>96</v>
       </c>
       <c r="B91">
-        <v>0.00116144018583043</v>
+        <v>0.001173708920187793</v>
       </c>
       <c r="C91">
         <v>1</v>
@@ -5764,13 +5743,13 @@
         <v>0</v>
       </c>
       <c r="H91">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="K91">
-        <v>0.001225490196078431</v>
+        <v>0.001203369434416366</v>
       </c>
       <c r="L91">
         <v>1</v>
@@ -5788,7 +5767,7 @@
         <v>0</v>
       </c>
       <c r="Q91">
-        <v>3</v>
+        <v>40</v>
       </c>
     </row>
     <row r="92" spans="1:17">
@@ -5796,7 +5775,7 @@
         <v>97</v>
       </c>
       <c r="B92">
-        <v>0.00116144018583043</v>
+        <v>0.001173708920187793</v>
       </c>
       <c r="C92">
         <v>1</v>
@@ -5817,10 +5796,10 @@
         <v>62</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="K92">
-        <v>0.001225490196078431</v>
+        <v>0.001203369434416366</v>
       </c>
       <c r="L92">
         <v>1</v>
@@ -5838,7 +5817,7 @@
         <v>0</v>
       </c>
       <c r="Q92">
-        <v>4</v>
+        <v>18</v>
       </c>
     </row>
     <row r="93" spans="1:17">
@@ -5846,7 +5825,7 @@
         <v>98</v>
       </c>
       <c r="B93">
-        <v>0.00116144018583043</v>
+        <v>0.001173708920187793</v>
       </c>
       <c r="C93">
         <v>1</v>
@@ -5864,13 +5843,13 @@
         <v>0</v>
       </c>
       <c r="H93">
-        <v>287</v>
+        <v>225</v>
       </c>
       <c r="J93" s="1" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="K93">
-        <v>0.001225490196078431</v>
+        <v>0.001203369434416366</v>
       </c>
       <c r="L93">
         <v>1</v>
@@ -5888,7 +5867,7 @@
         <v>0</v>
       </c>
       <c r="Q93">
-        <v>549</v>
+        <v>45</v>
       </c>
     </row>
     <row r="94" spans="1:17">
@@ -5896,49 +5875,49 @@
         <v>99</v>
       </c>
       <c r="B94">
-        <v>0.00116144018583043</v>
+        <v>0.001173708920187793</v>
       </c>
       <c r="C94">
         <v>1</v>
       </c>
       <c r="D94">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E94">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F94">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G94" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H94">
-        <v>8</v>
+        <v>286</v>
       </c>
       <c r="J94" s="1" t="s">
-        <v>245</v>
+        <v>52</v>
       </c>
       <c r="K94">
-        <v>0.001225490196078431</v>
+        <v>0.001203369434416366</v>
       </c>
       <c r="L94">
         <v>1</v>
       </c>
       <c r="M94">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N94">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="O94">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="P94" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q94">
-        <v>5</v>
+        <v>366</v>
       </c>
     </row>
     <row r="95" spans="1:17">
@@ -5946,7 +5925,7 @@
         <v>100</v>
       </c>
       <c r="B95">
-        <v>0.00116144018583043</v>
+        <v>0.001173708920187793</v>
       </c>
       <c r="C95">
         <v>1</v>
@@ -5964,13 +5943,13 @@
         <v>0</v>
       </c>
       <c r="H95">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="K95">
-        <v>0.001225490196078431</v>
+        <v>0.001203369434416366</v>
       </c>
       <c r="L95">
         <v>1</v>
@@ -5988,7 +5967,7 @@
         <v>0</v>
       </c>
       <c r="Q95">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="96" spans="1:17">
@@ -5996,7 +5975,7 @@
         <v>101</v>
       </c>
       <c r="B96">
-        <v>0.00116144018583043</v>
+        <v>0.001173708920187793</v>
       </c>
       <c r="C96">
         <v>1</v>
@@ -6014,31 +5993,31 @@
         <v>0</v>
       </c>
       <c r="H96">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>247</v>
+        <v>93</v>
       </c>
       <c r="K96">
-        <v>0.001225490196078431</v>
+        <v>0.001203369434416366</v>
       </c>
       <c r="L96">
         <v>1</v>
       </c>
       <c r="M96">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N96">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="O96">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="P96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q96">
-        <v>73</v>
+        <v>779</v>
       </c>
     </row>
     <row r="97" spans="1:17">
@@ -6046,7 +6025,7 @@
         <v>102</v>
       </c>
       <c r="B97">
-        <v>0.00116144018583043</v>
+        <v>0.001173708920187793</v>
       </c>
       <c r="C97">
         <v>1</v>
@@ -6064,13 +6043,13 @@
         <v>0</v>
       </c>
       <c r="H97">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
       <c r="K97">
-        <v>0.001225490196078431</v>
+        <v>0.001203369434416366</v>
       </c>
       <c r="L97">
         <v>1</v>
@@ -6088,7 +6067,7 @@
         <v>0</v>
       </c>
       <c r="Q97">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="98" spans="1:17">
@@ -6096,7 +6075,7 @@
         <v>103</v>
       </c>
       <c r="B98">
-        <v>0.00116144018583043</v>
+        <v>0.001173708920187793</v>
       </c>
       <c r="C98">
         <v>1</v>
@@ -6114,13 +6093,13 @@
         <v>0</v>
       </c>
       <c r="H98">
-        <v>99</v>
+        <v>72</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
       <c r="K98">
-        <v>0.001225490196078431</v>
+        <v>0.001203369434416366</v>
       </c>
       <c r="L98">
         <v>1</v>
@@ -6138,7 +6117,7 @@
         <v>0</v>
       </c>
       <c r="Q98">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="99" spans="1:17">
@@ -6146,7 +6125,7 @@
         <v>104</v>
       </c>
       <c r="B99">
-        <v>0.00116144018583043</v>
+        <v>0.001173708920187793</v>
       </c>
       <c r="C99">
         <v>1</v>
@@ -6164,13 +6143,13 @@
         <v>0</v>
       </c>
       <c r="H99">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="J99" s="1" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="K99">
-        <v>0.001225490196078431</v>
+        <v>0.001203369434416366</v>
       </c>
       <c r="L99">
         <v>1</v>
@@ -6188,7 +6167,7 @@
         <v>0</v>
       </c>
       <c r="Q99">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="100" spans="1:17">
@@ -6196,7 +6175,7 @@
         <v>105</v>
       </c>
       <c r="B100">
-        <v>0.00116144018583043</v>
+        <v>0.001173708920187793</v>
       </c>
       <c r="C100">
         <v>1</v>
@@ -6214,13 +6193,13 @@
         <v>0</v>
       </c>
       <c r="H100">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="J100" s="1" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="K100">
-        <v>0.001225490196078431</v>
+        <v>0.001203369434416366</v>
       </c>
       <c r="L100">
         <v>1</v>
@@ -6238,7 +6217,7 @@
         <v>0</v>
       </c>
       <c r="Q100">
-        <v>60</v>
+        <v>8</v>
       </c>
     </row>
     <row r="101" spans="1:17">
@@ -6246,7 +6225,7 @@
         <v>106</v>
       </c>
       <c r="B101">
-        <v>0.00116144018583043</v>
+        <v>0.001173708920187793</v>
       </c>
       <c r="C101">
         <v>1</v>
@@ -6264,13 +6243,13 @@
         <v>0</v>
       </c>
       <c r="H101">
-        <v>5</v>
+        <v>99</v>
       </c>
       <c r="J101" s="1" t="s">
-        <v>252</v>
+        <v>238</v>
       </c>
       <c r="K101">
-        <v>0.001225490196078431</v>
+        <v>0.001203369434416366</v>
       </c>
       <c r="L101">
         <v>1</v>
@@ -6288,7 +6267,7 @@
         <v>0</v>
       </c>
       <c r="Q101">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="102" spans="1:17">
@@ -6296,31 +6275,31 @@
         <v>107</v>
       </c>
       <c r="B102">
-        <v>0.00116144018583043</v>
+        <v>0.001173708920187793</v>
       </c>
       <c r="C102">
         <v>1</v>
       </c>
       <c r="D102">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E102">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="F102">
-        <v>0</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="G102" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H102">
-        <v>228</v>
+        <v>875</v>
       </c>
       <c r="J102" s="1" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
       <c r="K102">
-        <v>0.001225490196078431</v>
+        <v>0.001203369434416366</v>
       </c>
       <c r="L102">
         <v>1</v>
@@ -6338,7 +6317,7 @@
         <v>0</v>
       </c>
       <c r="Q102">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="103" spans="1:17">
@@ -6346,7 +6325,7 @@
         <v>108</v>
       </c>
       <c r="B103">
-        <v>0.00116144018583043</v>
+        <v>0.001173708920187793</v>
       </c>
       <c r="C103">
         <v>1</v>
@@ -6364,13 +6343,13 @@
         <v>0</v>
       </c>
       <c r="H103">
-        <v>43</v>
+        <v>228</v>
       </c>
       <c r="J103" s="1" t="s">
-        <v>254</v>
+        <v>240</v>
       </c>
       <c r="K103">
-        <v>0.001225490196078431</v>
+        <v>0.001203369434416366</v>
       </c>
       <c r="L103">
         <v>1</v>
@@ -6388,7 +6367,7 @@
         <v>0</v>
       </c>
       <c r="Q103">
-        <v>1142</v>
+        <v>8</v>
       </c>
     </row>
     <row r="104" spans="1:17">
@@ -6396,7 +6375,7 @@
         <v>109</v>
       </c>
       <c r="B104">
-        <v>0.00116144018583043</v>
+        <v>0.001173708920187793</v>
       </c>
       <c r="C104">
         <v>1</v>
@@ -6414,13 +6393,13 @@
         <v>0</v>
       </c>
       <c r="H104">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="J104" s="1" t="s">
-        <v>255</v>
+        <v>241</v>
       </c>
       <c r="K104">
-        <v>0.001225490196078431</v>
+        <v>0.001203369434416366</v>
       </c>
       <c r="L104">
         <v>1</v>
@@ -6438,7 +6417,7 @@
         <v>0</v>
       </c>
       <c r="Q104">
-        <v>15</v>
+        <v>198</v>
       </c>
     </row>
     <row r="105" spans="1:17">
@@ -6446,7 +6425,7 @@
         <v>110</v>
       </c>
       <c r="B105">
-        <v>0.00116144018583043</v>
+        <v>0.001173708920187793</v>
       </c>
       <c r="C105">
         <v>1</v>
@@ -6464,13 +6443,13 @@
         <v>0</v>
       </c>
       <c r="H105">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="J105" s="1" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
       <c r="K105">
-        <v>0.001225490196078431</v>
+        <v>0.001203369434416366</v>
       </c>
       <c r="L105">
         <v>1</v>
@@ -6488,7 +6467,7 @@
         <v>0</v>
       </c>
       <c r="Q105">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="106" spans="1:17">
@@ -6496,49 +6475,49 @@
         <v>111</v>
       </c>
       <c r="B106">
-        <v>0.00116144018583043</v>
+        <v>0.001173708920187793</v>
       </c>
       <c r="C106">
         <v>1</v>
       </c>
       <c r="D106">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E106">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F106">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G106" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H106">
-        <v>276</v>
+        <v>13</v>
       </c>
       <c r="J106" s="1" t="s">
-        <v>257</v>
+        <v>90</v>
       </c>
       <c r="K106">
-        <v>0.001225490196078431</v>
+        <v>0.001203369434416366</v>
       </c>
       <c r="L106">
         <v>1</v>
       </c>
       <c r="M106">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N106">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="O106">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="P106" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q106">
-        <v>11</v>
+        <v>661</v>
       </c>
     </row>
     <row r="107" spans="1:17">
@@ -6546,31 +6525,31 @@
         <v>112</v>
       </c>
       <c r="B107">
-        <v>0.00116144018583043</v>
+        <v>0.001173708920187793</v>
       </c>
       <c r="C107">
         <v>1</v>
       </c>
       <c r="D107">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E107">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="F107">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="G107" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>729</v>
       </c>
       <c r="J107" s="1" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="K107">
-        <v>0.001225490196078431</v>
+        <v>0.001203369434416366</v>
       </c>
       <c r="L107">
         <v>1</v>
@@ -6588,7 +6567,7 @@
         <v>0</v>
       </c>
       <c r="Q107">
-        <v>198</v>
+        <v>4</v>
       </c>
     </row>
     <row r="108" spans="1:17">
@@ -6596,7 +6575,7 @@
         <v>113</v>
       </c>
       <c r="B108">
-        <v>0.00116144018583043</v>
+        <v>0.001173708920187793</v>
       </c>
       <c r="C108">
         <v>1</v>
@@ -6614,13 +6593,13 @@
         <v>0</v>
       </c>
       <c r="H108">
-        <v>16</v>
+        <v>124</v>
       </c>
       <c r="J108" s="1" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="K108">
-        <v>0.001225490196078431</v>
+        <v>0.001203369434416366</v>
       </c>
       <c r="L108">
         <v>1</v>
@@ -6638,7 +6617,7 @@
         <v>0</v>
       </c>
       <c r="Q108">
-        <v>5</v>
+        <v>29</v>
       </c>
     </row>
     <row r="109" spans="1:17">
@@ -6646,7 +6625,7 @@
         <v>114</v>
       </c>
       <c r="B109">
-        <v>0.00116144018583043</v>
+        <v>0.001173708920187793</v>
       </c>
       <c r="C109">
         <v>1</v>
@@ -6664,13 +6643,13 @@
         <v>0</v>
       </c>
       <c r="H109">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="J109" s="1" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="K109">
-        <v>0.001225490196078431</v>
+        <v>0.001203369434416366</v>
       </c>
       <c r="L109">
         <v>1</v>
@@ -6688,7 +6667,7 @@
         <v>0</v>
       </c>
       <c r="Q109">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="110" spans="1:17">
@@ -6696,7 +6675,7 @@
         <v>115</v>
       </c>
       <c r="B110">
-        <v>0.00116144018583043</v>
+        <v>0.001173708920187793</v>
       </c>
       <c r="C110">
         <v>1</v>
@@ -6714,13 +6693,13 @@
         <v>0</v>
       </c>
       <c r="H110">
-        <v>11</v>
+        <v>95</v>
       </c>
       <c r="J110" s="1" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="K110">
-        <v>0.001225490196078431</v>
+        <v>0.001203369434416366</v>
       </c>
       <c r="L110">
         <v>1</v>
@@ -6738,7 +6717,7 @@
         <v>0</v>
       </c>
       <c r="Q110">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="111" spans="1:17">
@@ -6746,7 +6725,7 @@
         <v>116</v>
       </c>
       <c r="B111">
-        <v>0.00116144018583043</v>
+        <v>0.001173708920187793</v>
       </c>
       <c r="C111">
         <v>1</v>
@@ -6764,13 +6743,13 @@
         <v>0</v>
       </c>
       <c r="H111">
-        <v>45</v>
+        <v>157</v>
       </c>
       <c r="J111" s="1" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="K111">
-        <v>0.001225490196078431</v>
+        <v>0.001203369434416366</v>
       </c>
       <c r="L111">
         <v>1</v>
@@ -6788,7 +6767,7 @@
         <v>0</v>
       </c>
       <c r="Q111">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="112" spans="1:17">
@@ -6796,7 +6775,7 @@
         <v>117</v>
       </c>
       <c r="B112">
-        <v>0.00116144018583043</v>
+        <v>0.001173708920187793</v>
       </c>
       <c r="C112">
         <v>1</v>
@@ -6814,13 +6793,13 @@
         <v>0</v>
       </c>
       <c r="H112">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J112" s="1" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
       <c r="K112">
-        <v>0.001225490196078431</v>
+        <v>0.001203369434416366</v>
       </c>
       <c r="L112">
         <v>1</v>
@@ -6838,7 +6817,7 @@
         <v>0</v>
       </c>
       <c r="Q112">
-        <v>198</v>
+        <v>27</v>
       </c>
     </row>
     <row r="113" spans="1:17">
@@ -6846,7 +6825,7 @@
         <v>118</v>
       </c>
       <c r="B113">
-        <v>0.00116144018583043</v>
+        <v>0.001173708920187793</v>
       </c>
       <c r="C113">
         <v>1</v>
@@ -6864,13 +6843,13 @@
         <v>0</v>
       </c>
       <c r="H113">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="J113" s="1" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
       <c r="K113">
-        <v>0.001225490196078431</v>
+        <v>0.001203369434416366</v>
       </c>
       <c r="L113">
         <v>1</v>
@@ -6888,7 +6867,7 @@
         <v>0</v>
       </c>
       <c r="Q113">
-        <v>187</v>
+        <v>7</v>
       </c>
     </row>
     <row r="114" spans="1:17">
@@ -6896,7 +6875,7 @@
         <v>119</v>
       </c>
       <c r="B114">
-        <v>0.00116144018583043</v>
+        <v>0.001173708920187793</v>
       </c>
       <c r="C114">
         <v>1</v>
@@ -6914,31 +6893,31 @@
         <v>0</v>
       </c>
       <c r="H114">
-        <v>1</v>
+        <v>212</v>
       </c>
       <c r="J114" s="1" t="s">
-        <v>77</v>
+        <v>250</v>
       </c>
       <c r="K114">
-        <v>0.001225490196078431</v>
+        <v>0.001203369434416366</v>
       </c>
       <c r="L114">
         <v>1</v>
       </c>
       <c r="M114">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N114">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="O114">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="P114" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q114">
-        <v>953</v>
+        <v>18</v>
       </c>
     </row>
     <row r="115" spans="1:17">
@@ -6946,31 +6925,31 @@
         <v>120</v>
       </c>
       <c r="B115">
-        <v>0.00116144018583043</v>
+        <v>0.001173708920187793</v>
       </c>
       <c r="C115">
         <v>1</v>
       </c>
       <c r="D115">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E115">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F115">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G115" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H115">
-        <v>436</v>
+        <v>1142</v>
       </c>
       <c r="J115" s="1" t="s">
-        <v>265</v>
+        <v>251</v>
       </c>
       <c r="K115">
-        <v>0.001225490196078431</v>
+        <v>0.001203369434416366</v>
       </c>
       <c r="L115">
         <v>1</v>
@@ -6988,7 +6967,7 @@
         <v>0</v>
       </c>
       <c r="Q115">
-        <v>204</v>
+        <v>8</v>
       </c>
     </row>
     <row r="116" spans="1:17">
@@ -6996,7 +6975,7 @@
         <v>121</v>
       </c>
       <c r="B116">
-        <v>0.00116144018583043</v>
+        <v>0.001173708920187793</v>
       </c>
       <c r="C116">
         <v>1</v>
@@ -7014,13 +6993,13 @@
         <v>0</v>
       </c>
       <c r="H116">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="J116" s="1" t="s">
-        <v>266</v>
+        <v>252</v>
       </c>
       <c r="K116">
-        <v>0.001225490196078431</v>
+        <v>0.001203369434416366</v>
       </c>
       <c r="L116">
         <v>1</v>
@@ -7046,31 +7025,31 @@
         <v>122</v>
       </c>
       <c r="B117">
-        <v>0.00116144018583043</v>
+        <v>0.001173708920187793</v>
       </c>
       <c r="C117">
         <v>1</v>
       </c>
       <c r="D117">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E117">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F117">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G117" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H117">
-        <v>5</v>
+        <v>1099</v>
       </c>
       <c r="J117" s="1" t="s">
-        <v>267</v>
+        <v>253</v>
       </c>
       <c r="K117">
-        <v>0.001225490196078431</v>
+        <v>0.001203369434416366</v>
       </c>
       <c r="L117">
         <v>1</v>
@@ -7088,7 +7067,7 @@
         <v>0</v>
       </c>
       <c r="Q117">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="118" spans="1:17">
@@ -7096,7 +7075,7 @@
         <v>123</v>
       </c>
       <c r="B118">
-        <v>0.00116144018583043</v>
+        <v>0.001173708920187793</v>
       </c>
       <c r="C118">
         <v>1</v>
@@ -7114,31 +7093,31 @@
         <v>0</v>
       </c>
       <c r="H118">
+        <v>53</v>
+      </c>
+      <c r="J118" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="K118">
+        <v>0.001203369434416366</v>
+      </c>
+      <c r="L118">
+        <v>1</v>
+      </c>
+      <c r="M118">
+        <v>1</v>
+      </c>
+      <c r="N118">
+        <v>0</v>
+      </c>
+      <c r="O118">
+        <v>1</v>
+      </c>
+      <c r="P118" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q118">
         <v>23</v>
-      </c>
-      <c r="J118" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="K118">
-        <v>0.001225490196078431</v>
-      </c>
-      <c r="L118">
-        <v>1</v>
-      </c>
-      <c r="M118">
-        <v>1</v>
-      </c>
-      <c r="N118">
-        <v>0</v>
-      </c>
-      <c r="O118">
-        <v>1</v>
-      </c>
-      <c r="P118" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q118">
-        <v>4</v>
       </c>
     </row>
     <row r="119" spans="1:17">
@@ -7146,7 +7125,7 @@
         <v>124</v>
       </c>
       <c r="B119">
-        <v>0.00116144018583043</v>
+        <v>0.001173708920187793</v>
       </c>
       <c r="C119">
         <v>1</v>
@@ -7164,13 +7143,13 @@
         <v>0</v>
       </c>
       <c r="H119">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J119" s="1" t="s">
-        <v>269</v>
+        <v>255</v>
       </c>
       <c r="K119">
-        <v>0.001225490196078431</v>
+        <v>0.001203369434416366</v>
       </c>
       <c r="L119">
         <v>1</v>
@@ -7188,7 +7167,7 @@
         <v>0</v>
       </c>
       <c r="Q119">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:17">
@@ -7196,7 +7175,7 @@
         <v>125</v>
       </c>
       <c r="B120">
-        <v>0.00116144018583043</v>
+        <v>0.001173708920187793</v>
       </c>
       <c r="C120">
         <v>1</v>
@@ -7214,13 +7193,13 @@
         <v>0</v>
       </c>
       <c r="H120">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="J120" s="1" t="s">
-        <v>270</v>
+        <v>256</v>
       </c>
       <c r="K120">
-        <v>0.001225490196078431</v>
+        <v>0.001203369434416366</v>
       </c>
       <c r="L120">
         <v>1</v>
@@ -7238,7 +7217,7 @@
         <v>0</v>
       </c>
       <c r="Q120">
-        <v>6</v>
+        <v>106</v>
       </c>
     </row>
     <row r="121" spans="1:17">
@@ -7246,7 +7225,7 @@
         <v>126</v>
       </c>
       <c r="B121">
-        <v>0.00116144018583043</v>
+        <v>0.001173708920187793</v>
       </c>
       <c r="C121">
         <v>1</v>
@@ -7264,13 +7243,13 @@
         <v>0</v>
       </c>
       <c r="H121">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="J121" s="1" t="s">
-        <v>271</v>
+        <v>257</v>
       </c>
       <c r="K121">
-        <v>0.001225490196078431</v>
+        <v>0.001203369434416366</v>
       </c>
       <c r="L121">
         <v>1</v>
@@ -7288,7 +7267,7 @@
         <v>0</v>
       </c>
       <c r="Q121">
-        <v>294</v>
+        <v>49</v>
       </c>
     </row>
     <row r="122" spans="1:17">
@@ -7296,31 +7275,31 @@
         <v>127</v>
       </c>
       <c r="B122">
-        <v>0.00116144018583043</v>
+        <v>0.001173708920187793</v>
       </c>
       <c r="C122">
         <v>1</v>
       </c>
       <c r="D122">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E122">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F122">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G122" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H122">
-        <v>950</v>
+        <v>5</v>
       </c>
       <c r="J122" s="1" t="s">
-        <v>272</v>
+        <v>258</v>
       </c>
       <c r="K122">
-        <v>0.001225490196078431</v>
+        <v>0.001203369434416366</v>
       </c>
       <c r="L122">
         <v>1</v>
@@ -7338,7 +7317,7 @@
         <v>0</v>
       </c>
       <c r="Q122">
-        <v>2</v>
+        <v>187</v>
       </c>
     </row>
     <row r="123" spans="1:17">
@@ -7346,7 +7325,7 @@
         <v>128</v>
       </c>
       <c r="B123">
-        <v>0.00116144018583043</v>
+        <v>0.001173708920187793</v>
       </c>
       <c r="C123">
         <v>1</v>
@@ -7364,31 +7343,31 @@
         <v>0</v>
       </c>
       <c r="H123">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="J123" s="1" t="s">
-        <v>273</v>
+        <v>99</v>
       </c>
       <c r="K123">
-        <v>0.001225490196078431</v>
+        <v>0.001203369434416366</v>
       </c>
       <c r="L123">
         <v>1</v>
       </c>
       <c r="M123">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N123">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="O123">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="P123" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q123">
-        <v>302</v>
+        <v>286</v>
       </c>
     </row>
     <row r="124" spans="1:17">
@@ -7396,7 +7375,7 @@
         <v>129</v>
       </c>
       <c r="B124">
-        <v>0.00116144018583043</v>
+        <v>0.001173708920187793</v>
       </c>
       <c r="C124">
         <v>1</v>
@@ -7414,13 +7393,13 @@
         <v>0</v>
       </c>
       <c r="H124">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="J124" s="1" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="K124">
-        <v>0.001225490196078431</v>
+        <v>0.001203369434416366</v>
       </c>
       <c r="L124">
         <v>1</v>
@@ -7438,7 +7417,7 @@
         <v>0</v>
       </c>
       <c r="Q124">
-        <v>105</v>
+        <v>58</v>
       </c>
     </row>
     <row r="125" spans="1:17">
@@ -7446,7 +7425,7 @@
         <v>130</v>
       </c>
       <c r="B125">
-        <v>0.00116144018583043</v>
+        <v>0.001173708920187793</v>
       </c>
       <c r="C125">
         <v>1</v>
@@ -7464,13 +7443,13 @@
         <v>0</v>
       </c>
       <c r="H125">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="J125" s="1" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
       <c r="K125">
-        <v>0.001225490196078431</v>
+        <v>0.001203369434416366</v>
       </c>
       <c r="L125">
         <v>1</v>
@@ -7488,7 +7467,7 @@
         <v>0</v>
       </c>
       <c r="Q125">
-        <v>27</v>
+        <v>4</v>
       </c>
     </row>
     <row r="126" spans="1:17">
@@ -7496,7 +7475,7 @@
         <v>131</v>
       </c>
       <c r="B126">
-        <v>0.00116144018583043</v>
+        <v>0.001173708920187793</v>
       </c>
       <c r="C126">
         <v>1</v>
@@ -7514,13 +7493,13 @@
         <v>0</v>
       </c>
       <c r="H126">
-        <v>88</v>
+        <v>8</v>
       </c>
       <c r="J126" s="1" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="K126">
-        <v>0.001225490196078431</v>
+        <v>0.001203369434416366</v>
       </c>
       <c r="L126">
         <v>1</v>
@@ -7538,7 +7517,7 @@
         <v>0</v>
       </c>
       <c r="Q126">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:17">
@@ -7546,7 +7525,7 @@
         <v>132</v>
       </c>
       <c r="B127">
-        <v>0.00116144018583043</v>
+        <v>0.001173708920187793</v>
       </c>
       <c r="C127">
         <v>1</v>
@@ -7564,13 +7543,13 @@
         <v>0</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="J127" s="1" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="K127">
-        <v>0.001225490196078431</v>
+        <v>0.001203369434416366</v>
       </c>
       <c r="L127">
         <v>1</v>
@@ -7588,7 +7567,7 @@
         <v>0</v>
       </c>
       <c r="Q127">
-        <v>2</v>
+        <v>70</v>
       </c>
     </row>
     <row r="128" spans="1:17">
@@ -7596,7 +7575,7 @@
         <v>133</v>
       </c>
       <c r="B128">
-        <v>0.00116144018583043</v>
+        <v>0.001173708920187793</v>
       </c>
       <c r="C128">
         <v>1</v>
@@ -7614,13 +7593,13 @@
         <v>0</v>
       </c>
       <c r="H128">
-        <v>28</v>
+        <v>66</v>
       </c>
       <c r="J128" s="1" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
       <c r="K128">
-        <v>0.001225490196078431</v>
+        <v>0.001203369434416366</v>
       </c>
       <c r="L128">
         <v>1</v>
@@ -7638,7 +7617,7 @@
         <v>0</v>
       </c>
       <c r="Q128">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="129" spans="1:17">
@@ -7646,7 +7625,7 @@
         <v>134</v>
       </c>
       <c r="B129">
-        <v>0.00116144018583043</v>
+        <v>0.001173708920187793</v>
       </c>
       <c r="C129">
         <v>1</v>
@@ -7664,13 +7643,13 @@
         <v>0</v>
       </c>
       <c r="H129">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J129" s="1" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="K129">
-        <v>0.001225490196078431</v>
+        <v>0.001203369434416366</v>
       </c>
       <c r="L129">
         <v>1</v>
@@ -7688,7 +7667,7 @@
         <v>0</v>
       </c>
       <c r="Q129">
-        <v>18</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:17">
@@ -7696,7 +7675,7 @@
         <v>135</v>
       </c>
       <c r="B130">
-        <v>0.00116144018583043</v>
+        <v>0.001173708920187793</v>
       </c>
       <c r="C130">
         <v>1</v>
@@ -7714,13 +7693,13 @@
         <v>0</v>
       </c>
       <c r="H130">
-        <v>4</v>
+        <v>53</v>
       </c>
       <c r="J130" s="1" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="K130">
-        <v>0.001225490196078431</v>
+        <v>0.001203369434416366</v>
       </c>
       <c r="L130">
         <v>1</v>
@@ -7738,7 +7717,7 @@
         <v>0</v>
       </c>
       <c r="Q130">
-        <v>615</v>
+        <v>3</v>
       </c>
     </row>
     <row r="131" spans="1:17">
@@ -7746,7 +7725,7 @@
         <v>136</v>
       </c>
       <c r="B131">
-        <v>0.00116144018583043</v>
+        <v>0.001173708920187793</v>
       </c>
       <c r="C131">
         <v>1</v>
@@ -7764,13 +7743,13 @@
         <v>0</v>
       </c>
       <c r="H131">
-        <v>10</v>
+        <v>140</v>
       </c>
       <c r="J131" s="1" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="K131">
-        <v>0.001225490196078431</v>
+        <v>0.001203369434416366</v>
       </c>
       <c r="L131">
         <v>1</v>
@@ -7788,7 +7767,7 @@
         <v>0</v>
       </c>
       <c r="Q131">
-        <v>7</v>
+        <v>302</v>
       </c>
     </row>
     <row r="132" spans="1:17">
@@ -7796,7 +7775,7 @@
         <v>137</v>
       </c>
       <c r="B132">
-        <v>0.00116144018583043</v>
+        <v>0.001173708920187793</v>
       </c>
       <c r="C132">
         <v>1</v>
@@ -7814,13 +7793,13 @@
         <v>0</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J132" s="1" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
       <c r="K132">
-        <v>0.001225490196078431</v>
+        <v>0.001203369434416366</v>
       </c>
       <c r="L132">
         <v>1</v>
@@ -7838,7 +7817,7 @@
         <v>0</v>
       </c>
       <c r="Q132">
-        <v>630</v>
+        <v>9</v>
       </c>
     </row>
     <row r="133" spans="1:17">
@@ -7846,7 +7825,7 @@
         <v>138</v>
       </c>
       <c r="B133">
-        <v>0.00116144018583043</v>
+        <v>0.001173708920187793</v>
       </c>
       <c r="C133">
         <v>1</v>
@@ -7864,13 +7843,13 @@
         <v>0</v>
       </c>
       <c r="H133">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="J133" s="1" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="K133">
-        <v>0.001225490196078431</v>
+        <v>0.001203369434416366</v>
       </c>
       <c r="L133">
         <v>1</v>
@@ -7888,7 +7867,7 @@
         <v>0</v>
       </c>
       <c r="Q133">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="134" spans="1:17">
@@ -7896,7 +7875,7 @@
         <v>139</v>
       </c>
       <c r="B134">
-        <v>0.00116144018583043</v>
+        <v>0.001173708920187793</v>
       </c>
       <c r="C134">
         <v>1</v>
@@ -7914,13 +7893,13 @@
         <v>0</v>
       </c>
       <c r="H134">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="J134" s="1" t="s">
-        <v>284</v>
+        <v>269</v>
       </c>
       <c r="K134">
-        <v>0.001225490196078431</v>
+        <v>0.001203369434416366</v>
       </c>
       <c r="L134">
         <v>1</v>
@@ -7938,7 +7917,7 @@
         <v>0</v>
       </c>
       <c r="Q134">
-        <v>47</v>
+        <v>18</v>
       </c>
     </row>
     <row r="135" spans="1:17">
@@ -7946,7 +7925,7 @@
         <v>140</v>
       </c>
       <c r="B135">
-        <v>0.00116144018583043</v>
+        <v>0.001173708920187793</v>
       </c>
       <c r="C135">
         <v>1</v>
@@ -7964,13 +7943,13 @@
         <v>0</v>
       </c>
       <c r="H135">
-        <v>663</v>
+        <v>5</v>
       </c>
       <c r="J135" s="1" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="K135">
-        <v>0.001225490196078431</v>
+        <v>0.001203369434416366</v>
       </c>
       <c r="L135">
         <v>1</v>
@@ -7988,7 +7967,7 @@
         <v>0</v>
       </c>
       <c r="Q135">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="136" spans="1:17">
@@ -7996,7 +7975,7 @@
         <v>141</v>
       </c>
       <c r="B136">
-        <v>0.00116144018583043</v>
+        <v>0.001173708920187793</v>
       </c>
       <c r="C136">
         <v>1</v>
@@ -8014,13 +7993,13 @@
         <v>0</v>
       </c>
       <c r="H136">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="J136" s="1" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="K136">
-        <v>0.001225490196078431</v>
+        <v>0.001203369434416366</v>
       </c>
       <c r="L136">
         <v>1</v>
@@ -8046,7 +8025,7 @@
         <v>142</v>
       </c>
       <c r="B137">
-        <v>0.00116144018583043</v>
+        <v>0.001173708920187793</v>
       </c>
       <c r="C137">
         <v>1</v>
@@ -8064,13 +8043,13 @@
         <v>0</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J137" s="1" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
       <c r="K137">
-        <v>0.001225490196078431</v>
+        <v>0.001203369434416366</v>
       </c>
       <c r="L137">
         <v>1</v>
@@ -8088,7 +8067,7 @@
         <v>0</v>
       </c>
       <c r="Q137">
-        <v>3</v>
+        <v>144</v>
       </c>
     </row>
     <row r="138" spans="1:17">
@@ -8096,7 +8075,7 @@
         <v>143</v>
       </c>
       <c r="B138">
-        <v>0.00116144018583043</v>
+        <v>0.001173708920187793</v>
       </c>
       <c r="C138">
         <v>1</v>
@@ -8114,13 +8093,13 @@
         <v>0</v>
       </c>
       <c r="H138">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="J138" s="1" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="K138">
-        <v>0.001225490196078431</v>
+        <v>0.001203369434416366</v>
       </c>
       <c r="L138">
         <v>1</v>
@@ -8138,7 +8117,7 @@
         <v>0</v>
       </c>
       <c r="Q138">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:17">
@@ -8146,7 +8125,7 @@
         <v>144</v>
       </c>
       <c r="B139">
-        <v>0.00116144018583043</v>
+        <v>0.001173708920187793</v>
       </c>
       <c r="C139">
         <v>1</v>
@@ -8164,13 +8143,13 @@
         <v>0</v>
       </c>
       <c r="H139">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J139" s="1" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="K139">
-        <v>0.001225490196078431</v>
+        <v>0.001203369434416366</v>
       </c>
       <c r="L139">
         <v>1</v>
@@ -8196,7 +8175,7 @@
         <v>145</v>
       </c>
       <c r="B140">
-        <v>0.00116144018583043</v>
+        <v>0.001173708920187793</v>
       </c>
       <c r="C140">
         <v>1</v>
@@ -8214,13 +8193,13 @@
         <v>0</v>
       </c>
       <c r="H140">
-        <v>76</v>
+        <v>41</v>
       </c>
       <c r="J140" s="1" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="K140">
-        <v>0.001225490196078431</v>
+        <v>0.001203369434416366</v>
       </c>
       <c r="L140">
         <v>1</v>
@@ -8238,7 +8217,7 @@
         <v>0</v>
       </c>
       <c r="Q140">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:17">
@@ -8246,7 +8225,7 @@
         <v>146</v>
       </c>
       <c r="B141">
-        <v>0.00116144018583043</v>
+        <v>0.001173708920187793</v>
       </c>
       <c r="C141">
         <v>1</v>
@@ -8264,13 +8243,13 @@
         <v>0</v>
       </c>
       <c r="H141">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="J141" s="1" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="K141">
-        <v>0.001225490196078431</v>
+        <v>0.001203369434416366</v>
       </c>
       <c r="L141">
         <v>1</v>
@@ -8288,7 +8267,7 @@
         <v>0</v>
       </c>
       <c r="Q141">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="142" spans="1:17">
@@ -8296,7 +8275,7 @@
         <v>147</v>
       </c>
       <c r="B142">
-        <v>0.00116144018583043</v>
+        <v>0.001173708920187793</v>
       </c>
       <c r="C142">
         <v>1</v>
@@ -8314,13 +8293,13 @@
         <v>0</v>
       </c>
       <c r="H142">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J142" s="1" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="K142">
-        <v>0.001225490196078431</v>
+        <v>0.001203369434416366</v>
       </c>
       <c r="L142">
         <v>1</v>
@@ -8338,7 +8317,7 @@
         <v>0</v>
       </c>
       <c r="Q142">
-        <v>1</v>
+        <v>47</v>
       </c>
     </row>
     <row r="143" spans="1:17">
@@ -8346,7 +8325,7 @@
         <v>148</v>
       </c>
       <c r="B143">
-        <v>0.00116144018583043</v>
+        <v>0.001173708920187793</v>
       </c>
       <c r="C143">
         <v>1</v>
@@ -8364,13 +8343,13 @@
         <v>0</v>
       </c>
       <c r="H143">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J143" s="1" t="s">
-        <v>293</v>
+        <v>278</v>
       </c>
       <c r="K143">
-        <v>0.001225490196078431</v>
+        <v>0.001203369434416366</v>
       </c>
       <c r="L143">
         <v>1</v>
@@ -8388,7 +8367,7 @@
         <v>0</v>
       </c>
       <c r="Q143">
-        <v>40</v>
+        <v>52</v>
       </c>
     </row>
     <row r="144" spans="1:17">
@@ -8396,7 +8375,7 @@
         <v>149</v>
       </c>
       <c r="B144">
-        <v>0.00116144018583043</v>
+        <v>0.001173708920187793</v>
       </c>
       <c r="C144">
         <v>1</v>
@@ -8414,13 +8393,13 @@
         <v>0</v>
       </c>
       <c r="H144">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="J144" s="1" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
       <c r="K144">
-        <v>0.001225490196078431</v>
+        <v>0.001203369434416366</v>
       </c>
       <c r="L144">
         <v>1</v>
@@ -8438,7 +8417,7 @@
         <v>0</v>
       </c>
       <c r="Q144">
-        <v>6</v>
+        <v>615</v>
       </c>
     </row>
     <row r="145" spans="1:17">
@@ -8446,7 +8425,7 @@
         <v>150</v>
       </c>
       <c r="B145">
-        <v>0.00116144018583043</v>
+        <v>0.001173708920187793</v>
       </c>
       <c r="C145">
         <v>1</v>
@@ -8464,13 +8443,13 @@
         <v>0</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>51</v>
       </c>
       <c r="J145" s="1" t="s">
-        <v>295</v>
+        <v>280</v>
       </c>
       <c r="K145">
-        <v>0.001225490196078431</v>
+        <v>0.001203369434416366</v>
       </c>
       <c r="L145">
         <v>1</v>
@@ -8488,7 +8467,7 @@
         <v>0</v>
       </c>
       <c r="Q145">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="146" spans="1:17">
@@ -8496,7 +8475,7 @@
         <v>151</v>
       </c>
       <c r="B146">
-        <v>0.00116144018583043</v>
+        <v>0.001173708920187793</v>
       </c>
       <c r="C146">
         <v>1</v>
@@ -8514,13 +8493,13 @@
         <v>0</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="J146" s="1" t="s">
-        <v>296</v>
+        <v>281</v>
       </c>
       <c r="K146">
-        <v>0.001225490196078431</v>
+        <v>0.001203369434416366</v>
       </c>
       <c r="L146">
         <v>1</v>
@@ -8538,7 +8517,7 @@
         <v>0</v>
       </c>
       <c r="Q146">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="147" spans="1:17">
@@ -8546,7 +8525,7 @@
         <v>152</v>
       </c>
       <c r="B147">
-        <v>0.00116144018583043</v>
+        <v>0.001173708920187793</v>
       </c>
       <c r="C147">
         <v>1</v>
@@ -8564,13 +8543,13 @@
         <v>0</v>
       </c>
       <c r="H147">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="J147" s="1" t="s">
-        <v>297</v>
+        <v>282</v>
       </c>
       <c r="K147">
-        <v>0.001225490196078431</v>
+        <v>0.001203369434416366</v>
       </c>
       <c r="L147">
         <v>1</v>
@@ -8588,39 +8567,15 @@
         <v>0</v>
       </c>
       <c r="Q147">
-        <v>25</v>
+        <v>34</v>
       </c>
     </row>
     <row r="148" spans="1:17">
-      <c r="A148" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="B148">
-        <v>0.00116144018583043</v>
-      </c>
-      <c r="C148">
-        <v>1</v>
-      </c>
-      <c r="D148">
-        <v>1</v>
-      </c>
-      <c r="E148">
-        <v>1</v>
-      </c>
-      <c r="F148">
-        <v>0</v>
-      </c>
-      <c r="G148" t="b">
-        <v>0</v>
-      </c>
-      <c r="H148">
-        <v>2</v>
-      </c>
       <c r="J148" s="1" t="s">
-        <v>298</v>
+        <v>283</v>
       </c>
       <c r="K148">
-        <v>0.001225490196078431</v>
+        <v>0.001203369434416366</v>
       </c>
       <c r="L148">
         <v>1</v>
@@ -8638,39 +8593,15 @@
         <v>0</v>
       </c>
       <c r="Q148">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:17">
-      <c r="A149" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="B149">
-        <v>0.00116144018583043</v>
-      </c>
-      <c r="C149">
-        <v>1</v>
-      </c>
-      <c r="D149">
-        <v>1</v>
-      </c>
-      <c r="E149">
-        <v>1</v>
-      </c>
-      <c r="F149">
-        <v>0</v>
-      </c>
-      <c r="G149" t="b">
-        <v>0</v>
-      </c>
-      <c r="H149">
-        <v>45</v>
-      </c>
       <c r="J149" s="1" t="s">
-        <v>299</v>
+        <v>284</v>
       </c>
       <c r="K149">
-        <v>0.001225490196078431</v>
+        <v>0.001203369434416366</v>
       </c>
       <c r="L149">
         <v>1</v>
@@ -8688,289 +8619,267 @@
         <v>0</v>
       </c>
       <c r="Q149">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:17">
+      <c r="J150" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="K150">
+        <v>0.001203369434416366</v>
+      </c>
+      <c r="L150">
+        <v>1</v>
+      </c>
+      <c r="M150">
+        <v>1</v>
+      </c>
+      <c r="N150">
+        <v>0</v>
+      </c>
+      <c r="O150">
+        <v>1</v>
+      </c>
+      <c r="P150" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q150">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="151" spans="1:17">
+      <c r="J151" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="K151">
+        <v>0.001203369434416366</v>
+      </c>
+      <c r="L151">
+        <v>1</v>
+      </c>
+      <c r="M151">
+        <v>1</v>
+      </c>
+      <c r="N151">
+        <v>0</v>
+      </c>
+      <c r="O151">
+        <v>1</v>
+      </c>
+      <c r="P151" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q151">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="152" spans="1:17">
+      <c r="J152" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="K152">
+        <v>0.001203369434416366</v>
+      </c>
+      <c r="L152">
+        <v>1</v>
+      </c>
+      <c r="M152">
+        <v>1</v>
+      </c>
+      <c r="N152">
+        <v>0</v>
+      </c>
+      <c r="O152">
+        <v>1</v>
+      </c>
+      <c r="P152" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q152">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="153" spans="1:17">
+      <c r="J153" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="K153">
+        <v>0.001203369434416366</v>
+      </c>
+      <c r="L153">
+        <v>1</v>
+      </c>
+      <c r="M153">
+        <v>1</v>
+      </c>
+      <c r="N153">
+        <v>0</v>
+      </c>
+      <c r="O153">
+        <v>1</v>
+      </c>
+      <c r="P153" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q153">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="154" spans="1:17">
+      <c r="J154" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="K154">
+        <v>0.001203369434416366</v>
+      </c>
+      <c r="L154">
+        <v>1</v>
+      </c>
+      <c r="M154">
+        <v>1</v>
+      </c>
+      <c r="N154">
+        <v>0</v>
+      </c>
+      <c r="O154">
+        <v>1</v>
+      </c>
+      <c r="P154" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q154">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="155" spans="1:17">
+      <c r="J155" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="K155">
+        <v>0.001203369434416366</v>
+      </c>
+      <c r="L155">
+        <v>1</v>
+      </c>
+      <c r="M155">
+        <v>1</v>
+      </c>
+      <c r="N155">
+        <v>0</v>
+      </c>
+      <c r="O155">
+        <v>1</v>
+      </c>
+      <c r="P155" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q155">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="156" spans="1:17">
+      <c r="J156" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="K156">
+        <v>0.001203369434416366</v>
+      </c>
+      <c r="L156">
+        <v>1</v>
+      </c>
+      <c r="M156">
+        <v>1</v>
+      </c>
+      <c r="N156">
+        <v>0</v>
+      </c>
+      <c r="O156">
+        <v>1</v>
+      </c>
+      <c r="P156" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:17">
+      <c r="J157" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="K157">
+        <v>0.001203369434416366</v>
+      </c>
+      <c r="L157">
+        <v>1</v>
+      </c>
+      <c r="M157">
+        <v>1</v>
+      </c>
+      <c r="N157">
+        <v>0</v>
+      </c>
+      <c r="O157">
+        <v>1</v>
+      </c>
+      <c r="P157" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q157">
         <v>4</v>
       </c>
     </row>
-    <row r="150" spans="1:17">
-      <c r="A150" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="B150">
-        <v>0.00116144018583043</v>
-      </c>
-      <c r="C150">
-        <v>1</v>
-      </c>
-      <c r="D150">
-        <v>1</v>
-      </c>
-      <c r="E150">
-        <v>1</v>
-      </c>
-      <c r="F150">
-        <v>0</v>
-      </c>
-      <c r="G150" t="b">
-        <v>0</v>
-      </c>
-      <c r="H150">
-        <v>15</v>
-      </c>
-      <c r="J150" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="K150">
-        <v>0.001225490196078431</v>
-      </c>
-      <c r="L150">
-        <v>1</v>
-      </c>
-      <c r="M150">
-        <v>1</v>
-      </c>
-      <c r="N150">
-        <v>0</v>
-      </c>
-      <c r="O150">
-        <v>1</v>
-      </c>
-      <c r="P150" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q150">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="151" spans="1:17">
-      <c r="A151" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="B151">
-        <v>0.00116144018583043</v>
-      </c>
-      <c r="C151">
-        <v>1</v>
-      </c>
-      <c r="D151">
-        <v>1</v>
-      </c>
-      <c r="E151">
-        <v>1</v>
-      </c>
-      <c r="F151">
-        <v>0</v>
-      </c>
-      <c r="G151" t="b">
-        <v>0</v>
-      </c>
-      <c r="H151">
-        <v>0</v>
-      </c>
-      <c r="J151" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="K151">
-        <v>0.001225490196078431</v>
-      </c>
-      <c r="L151">
-        <v>1</v>
-      </c>
-      <c r="M151">
-        <v>1</v>
-      </c>
-      <c r="N151">
-        <v>0</v>
-      </c>
-      <c r="O151">
-        <v>1</v>
-      </c>
-      <c r="P151" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q151">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="152" spans="1:17">
-      <c r="A152" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B152">
-        <v>0.00116144018583043</v>
-      </c>
-      <c r="C152">
-        <v>1</v>
-      </c>
-      <c r="D152">
-        <v>1</v>
-      </c>
-      <c r="E152">
-        <v>1</v>
-      </c>
-      <c r="F152">
-        <v>0</v>
-      </c>
-      <c r="G152" t="b">
-        <v>0</v>
-      </c>
-      <c r="H152">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="153" spans="1:17">
-      <c r="A153" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="B153">
-        <v>0.00116144018583043</v>
-      </c>
-      <c r="C153">
-        <v>1</v>
-      </c>
-      <c r="D153">
-        <v>1</v>
-      </c>
-      <c r="E153">
-        <v>1</v>
-      </c>
-      <c r="F153">
-        <v>0</v>
-      </c>
-      <c r="G153" t="b">
-        <v>0</v>
-      </c>
-      <c r="H153">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="154" spans="1:17">
-      <c r="A154" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="B154">
-        <v>0.00116144018583043</v>
-      </c>
-      <c r="C154">
-        <v>1</v>
-      </c>
-      <c r="D154">
-        <v>1</v>
-      </c>
-      <c r="E154">
-        <v>1</v>
-      </c>
-      <c r="F154">
-        <v>0</v>
-      </c>
-      <c r="G154" t="b">
-        <v>0</v>
-      </c>
-      <c r="H154">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="155" spans="1:17">
-      <c r="A155" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="B155">
-        <v>0.00116144018583043</v>
-      </c>
-      <c r="C155">
-        <v>1</v>
-      </c>
-      <c r="D155">
-        <v>1</v>
-      </c>
-      <c r="E155">
-        <v>1</v>
-      </c>
-      <c r="F155">
-        <v>0</v>
-      </c>
-      <c r="G155" t="b">
-        <v>0</v>
-      </c>
-      <c r="H155">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="156" spans="1:17">
-      <c r="A156" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="B156">
-        <v>0.00116144018583043</v>
-      </c>
-      <c r="C156">
-        <v>1</v>
-      </c>
-      <c r="D156">
-        <v>1</v>
-      </c>
-      <c r="E156">
-        <v>1</v>
-      </c>
-      <c r="F156">
-        <v>0</v>
-      </c>
-      <c r="G156" t="b">
-        <v>0</v>
-      </c>
-      <c r="H156">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="157" spans="1:17">
-      <c r="A157" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="B157">
-        <v>0.00116144018583043</v>
-      </c>
-      <c r="C157">
-        <v>1</v>
-      </c>
-      <c r="D157">
-        <v>1</v>
-      </c>
-      <c r="E157">
-        <v>1</v>
-      </c>
-      <c r="F157">
-        <v>0</v>
-      </c>
-      <c r="G157" t="b">
-        <v>0</v>
-      </c>
-      <c r="H157">
-        <v>27</v>
-      </c>
-    </row>
     <row r="158" spans="1:17">
-      <c r="A158" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="B158">
-        <v>0.00116144018583043</v>
-      </c>
-      <c r="C158">
-        <v>1</v>
-      </c>
-      <c r="D158">
-        <v>1</v>
-      </c>
-      <c r="E158">
-        <v>1</v>
-      </c>
-      <c r="F158">
-        <v>0</v>
-      </c>
-      <c r="G158" t="b">
-        <v>0</v>
-      </c>
-      <c r="H158">
-        <v>11</v>
+      <c r="J158" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="K158">
+        <v>0.001203369434416366</v>
+      </c>
+      <c r="L158">
+        <v>1</v>
+      </c>
+      <c r="M158">
+        <v>1</v>
+      </c>
+      <c r="N158">
+        <v>0</v>
+      </c>
+      <c r="O158">
+        <v>1</v>
+      </c>
+      <c r="P158" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q158">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:17">
+      <c r="J159" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="K159">
+        <v>0.001203369434416366</v>
+      </c>
+      <c r="L159">
+        <v>1</v>
+      </c>
+      <c r="M159">
+        <v>1</v>
+      </c>
+      <c r="N159">
+        <v>0</v>
+      </c>
+      <c r="O159">
+        <v>1</v>
+      </c>
+      <c r="P159" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q159">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
